--- a/ReqspProyectoFDual_V1.xlsx
+++ b/ReqspProyectoFDual_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D5E76-6CA3-45E5-874B-E521EB761701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49245A-E13A-40DD-A3A7-4BF94C51356C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A02C390F-C9E6-4B77-986F-EC5ACE46F6C4}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
   <si>
     <t>-El numero de bits es de 8.</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>-El esclavo configura sus registros de manera análoga al maestro y deberá tener el mismo diccionario de mensajes para que sepa interpretar.</t>
-  </si>
-  <si>
-    <t>-Presionar 1 ves en 1 segundo. invierte el valor del pin de salida.</t>
   </si>
   <si>
     <t>-Presionar 2 veces en 1 segundo. genera un PWM de 1Hz.</t>
@@ -203,9 +200,6 @@
     <t>El led sera de baja intensidad color azul - HW</t>
   </si>
   <si>
-    <t>El estado del led se mantendra hasta que vuelva a exitir mas pulsaciones - SW</t>
-  </si>
-  <si>
     <t>-9600 bd</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
   </si>
   <si>
     <t>Nuevo / Consultar con el cliente</t>
-  </si>
-  <si>
-    <t>Duracion de los pwm despùes del pulso - SW</t>
   </si>
   <si>
     <t>Ejecucion ciclica - SW</t>
@@ -425,40 +416,28 @@
     <t>¿Qué va contener el diccionario de msjs?</t>
   </si>
   <si>
-    <t>¿Qué va untdeer el y msjs?</t>
+    <t>¿Qué mensaje de seguridad?</t>
   </si>
   <si>
-    <t>¿Qué va registrostmaneraer msjs?</t>
+    <t>Presionar 1 vez en 1 segundo. invierte el valor del pin de salida.</t>
   </si>
   <si>
-    <t>¿Qué va inviertetvalorer msjs?</t>
+    <t>Tiempo minimo para considerarse boton pulsado de 50ms</t>
   </si>
   <si>
-    <t>¿Qué va generatPWMer msjs?</t>
+    <t>El led permanece apagado, hasta que el boton se pulse</t>
   </si>
   <si>
-    <t>¿Qué va GeneratPWMer msjs?</t>
+    <t>Si el boton es pulsado mas de 1 segundo no se realizara ninguna operación</t>
   </si>
   <si>
-    <t>¿Qué va bajatcolorer msjs?</t>
+    <t>Duracion de los pwm despùes del activarse - SW</t>
   </si>
   <si>
-    <t>¿Qué va sethastaer msjs?</t>
+    <t>En que pines se van a generar los pwm - HW</t>
   </si>
   <si>
-    <t>¿Qué va setmaser msjs?</t>
-  </si>
-  <si>
-    <t>¿Qué va eltempezaraer msjs?</t>
-  </si>
-  <si>
-    <t>¿Qué va despùestpulsoer msjs?</t>
-  </si>
-  <si>
-    <t>¿Qué va enttarjetaer msjs?</t>
-  </si>
-  <si>
-    <t>¿Qué mensaje de seguridad?</t>
+    <t>En que pines se van a generar los pwm - SW</t>
   </si>
 </sst>
 </file>
@@ -914,7 +893,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1047,6 +1026,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1419,10 +1401,10 @@
   <sheetData>
     <row r="1" spans="3:6" ht="14.4" customHeight="1">
       <c r="C1" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="3:6" ht="14.4" customHeight="1">
@@ -1431,122 +1413,122 @@
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="14.4" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="14.4" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="3:6">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="3:6">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="3:6">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="3:6">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="3:6">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="3:6">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1" t="s">
+    <row r="13" spans="3:6">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1" t="s">
+    <row r="14" spans="3:6">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1" t="s">
+    <row r="15" spans="3:6">
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="3:6">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1561,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D815AF-EB23-485E-ADBC-540B2AA2F226}">
-  <dimension ref="C1:F30"/>
+  <dimension ref="C1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1576,16 +1558,16 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -1596,25 +1578,25 @@
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:6">
@@ -1622,32 +1604,32 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:6">
@@ -1655,21 +1637,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -1677,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:6">
@@ -1688,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1699,13 +1681,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="3:6">
@@ -1713,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -1727,181 +1709,231 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
+      <c r="D19" t="s">
+        <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
+      <c r="E19" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
+    <row r="20" spans="3:5">
+      <c r="C20" s="1" t="s">
+        <v>100</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>24</v>
+      <c r="E20" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
+      <c r="E21" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
+      <c r="E27" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="1" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
+      <c r="D28" t="s">
+        <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>43</v>
+      <c r="E28" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="1" t="s">
-        <v>48</v>
+    <row r="29" spans="3:5">
+      <c r="C29" s="1" t="s">
+        <v>101</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
+      <c r="D29" t="s">
+        <v>16</v>
       </c>
-      <c r="E26" t="s">
-        <v>43</v>
+      <c r="E29" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="1" t="s">
-        <v>49</v>
+    <row r="30" spans="3:5">
+      <c r="C30" s="1" t="s">
+        <v>99</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
+      <c r="D30" t="s">
+        <v>16</v>
       </c>
-      <c r="E27" t="s">
-        <v>43</v>
+      <c r="E30" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="1" t="s">
-        <v>50</v>
+    <row r="31" spans="3:5">
+      <c r="C31" s="1" t="s">
+        <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" t="s">
-        <v>93</v>
+      <c r="D31" t="s">
+        <v>16</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>95</v>
+      <c r="E31" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" t="s">
-        <v>94</v>
+    <row r="32" spans="3:5">
+      <c r="C32" s="1" t="s">
+        <v>104</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,7 +1945,7 @@
   <dimension ref="C1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1925,16 +1957,16 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="3:6">
@@ -1945,111 +1977,117 @@
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1" t="s">
-        <v>50</v>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>95</v>
+      <c r="D12" s="50" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2105,14 +2143,14 @@
       <c r="AB1" s="36"/>
     </row>
     <row r="2" spans="1:256" s="38" customFormat="1" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A2" s="53" t="s">
-        <v>92</v>
+      <c r="A2" s="54" t="s">
+        <v>89</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R2" s="36"/>
       <c r="U2" s="36"/>
@@ -2120,14 +2158,14 @@
       <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="1:256" s="38" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="53" t="s">
-        <v>90</v>
+      <c r="A3" s="54" t="s">
+        <v>87</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R3" s="36"/>
       <c r="U3" s="36"/>
@@ -2135,14 +2173,14 @@
       <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="1:256" s="38" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="53" t="s">
-        <v>88</v>
+      <c r="A4" s="54" t="s">
+        <v>85</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
@@ -2155,25 +2193,25 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="42"/>
       <c r="R4" s="36"/>
-      <c r="S4" s="50" t="s">
-        <v>85</v>
+      <c r="S4" s="51" t="s">
+        <v>82</v>
       </c>
-      <c r="T4" s="52"/>
+      <c r="T4" s="53"/>
       <c r="U4" s="36"/>
-      <c r="V4" s="55" t="s">
-        <v>84</v>
+      <c r="V4" s="56" t="s">
+        <v>81</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="36"/>
-      <c r="Z4" s="50" t="s">
-        <v>83</v>
+      <c r="Z4" s="51" t="s">
+        <v>80</v>
       </c>
-      <c r="AA4" s="51"/>
+      <c r="AA4" s="52"/>
       <c r="AB4" s="36"/>
     </row>
     <row r="5" spans="1:256" s="38" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1">
@@ -2183,34 +2221,34 @@
       <c r="D5" s="37"/>
       <c r="E5" s="41"/>
       <c r="F5" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -2229,16 +2267,16 @@
     <row r="6" spans="1:256" s="33" customFormat="1" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -2251,34 +2289,34 @@
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R6" s="36"/>
       <c r="S6" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="T6" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U6" s="36"/>
       <c r="V6" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W6" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="36"/>
       <c r="AC6" s="35"/>
@@ -2516,73 +2554,73 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="14"/>
       <c r="Z7" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="10"/>

--- a/ReqspProyectoFDual_V1.xlsx
+++ b/ReqspProyectoFDual_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan_\Desktop\ProyectoFDConti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49245A-E13A-40DD-A3A7-4BF94C51356C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BAB044-0453-4BD8-98B5-AB1DAF11665A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A02C390F-C9E6-4B77-986F-EC5ACE46F6C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A02C390F-C9E6-4B77-986F-EC5ACE46F6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="L0 - L1" sheetId="1" r:id="rId1"/>
@@ -120,40 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
-  <si>
-    <t>-El numero de bits es de 8.</t>
-  </si>
-  <si>
-    <t>-la paridad establecida es par.</t>
-  </si>
-  <si>
-    <t>-el protocolo de comunicacion es SPI.</t>
-  </si>
-  <si>
-    <t>-La primera trama de datos determinará el número de datos a transmitir.</t>
-  </si>
-  <si>
-    <t>,la decodificación se realizará con base en un diccionario de mensajes. Las tramas de datos serán de ocho bits.</t>
-  </si>
-  <si>
-    <t>-El diccionario deberá incluir un mensaje de seguridad y debe determinar las acciones a realizar.</t>
-  </si>
-  <si>
-    <t>-El esclavo configura sus registros de manera análoga al maestro y deberá tener el mismo diccionario de mensajes para que sepa interpretar.</t>
-  </si>
-  <si>
-    <t>-Presionar 2 veces en 1 segundo. genera un PWM de 1Hz.</t>
-  </si>
-  <si>
-    <t>-Presiona 3 veces en 1 segundo. Genera un PWM de 2Hz.</t>
-  </si>
-  <si>
-    <t>-Si el push botton se presiona mas de 3 veces en un segundo,se hara caso omiso y seguira la instruccion que esta en ese momento.</t>
-  </si>
-  <si>
-    <t>-Al momento de iniciar ,el led empezara en estado apagado.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>L0 - Requisitos del usuario/cliente</t>
   </si>
@@ -422,9 +389,6 @@
     <t>Presionar 1 vez en 1 segundo. invierte el valor del pin de salida.</t>
   </si>
   <si>
-    <t>Tiempo minimo para considerarse boton pulsado de 50ms</t>
-  </si>
-  <si>
     <t>El led permanece apagado, hasta que el boton se pulse</t>
   </si>
   <si>
@@ -439,12 +403,69 @@
   <si>
     <t>En que pines se van a generar los pwm - SW</t>
   </si>
+  <si>
+    <t>Duty cycle al 50% (modula el ancho del pulso generado con el bloque PWM)</t>
+  </si>
+  <si>
+    <t>El numero de bits es de 8.</t>
+  </si>
+  <si>
+    <t>La paridad establecida es par.</t>
+  </si>
+  <si>
+    <t>El protocolo de comunicacion es SPI.</t>
+  </si>
+  <si>
+    <t>La primera trama de datos determinará el número de datos a transmitir.</t>
+  </si>
+  <si>
+    <t>El esclavo configura sus registros de manera análoga al maestro y deberá tener el mismo diccionario de mensajes para que sepa interpretar.</t>
+  </si>
+  <si>
+    <t>Presionar 2 veces en 1 segundo. genera un PWM de 1Hz.</t>
+  </si>
+  <si>
+    <t>Presiona 3 veces en 1 segundo. Genera un PWM de 2Hz.</t>
+  </si>
+  <si>
+    <t>Si el push botton se presiona mas de 3 veces en un segundo,se hara caso omiso y seguira la instruccion que esta en ese momento.</t>
+  </si>
+  <si>
+    <t>Al momento de iniciar ,el led empezara en estado apagado.</t>
+  </si>
+  <si>
+    <t>Si falla la instrucción del boton, se debe reiniciar el sistema(proteger el sistema)</t>
+  </si>
+  <si>
+    <t>Oprimir el boton mas de 999ms reiniciara el sistema</t>
+  </si>
+  <si>
+    <t>El diccionario deberá incluir un mensaje de seguridad y debe determinar las acciones a realizar.(Checksum error)</t>
+  </si>
+  <si>
+    <t>La decodificación se realizará con base en un diccionario de mensajes. Las tramas de datos serán de ocho bits. (El diccionario sera definido por el equipo de trabajo)</t>
+  </si>
+  <si>
+    <t>Un led (rojo) enciende cuando el boton se oprime mas de 3 veces y queda encendido hasta que se reinicie el sistema - HW</t>
+  </si>
+  <si>
+    <t>Un led enciende cuando el boton se oprime mas de 3 veces y queda encendido hasta que se reinicie el sistema - SW</t>
+  </si>
+  <si>
+    <t>Señal de salida inicial 0.5hz con el led</t>
+  </si>
+  <si>
+    <t>La señar PWM generada permanecera activa hasta que otro evento la interrumpa</t>
+  </si>
+  <si>
+    <t>Se preguntará por configuraciones específicas de los registros utilizados para controlar el reloj, la comunicación y los puertos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +914,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1024,11 +1045,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1057,13 +1090,78 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2060119D-8B58-4A95-98BB-9E2602B22264}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1077,6 +1175,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1088,6 +1210,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2F2E50B-1EF4-4325-980C-F2B13629F7C4}" name="Tabla4" displayName="Tabla4" ref="F1:F17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="F1:F17" xr:uid="{B4DF47FD-1407-40E5-B945-CA722A44899D}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{423BB5B5-D1DB-4B7E-9869-0DA6FD11ECCD}" name="L1 - Subsistema" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A66A1F6C-804D-4AF1-A770-78300A498A78}" name="Tabla5" displayName="Tabla5" ref="C1:C17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="C1:C17" xr:uid="{60CA1DDC-7E8E-4412-B06D-188125C8A443}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4FCA775F-E8E3-4921-A3C7-0F87721F1BEA}" name="L0 - Requisitos del usuario/cliente" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB8FB143-BF07-47B0-80A3-3EB9CF4520C5}" name="Tabla1" displayName="Tabla1" ref="C3:F39" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9E948F58-7EB4-405B-A286-5B7F354D8D4E}" name="Columna1" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9803A67B-17D0-4D4E-A3F4-50EC3F33B54E}" name="Columna2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1128A42C-649A-41DE-B756-371130D611FA}" name="Columna3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{545A17B4-FE42-4D03-B44B-5963D327FFDA}" name="Columna4" headerRowDxfId="8" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,554 +1547,652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1144B138-1C92-4AD2-9DCA-CA6D3803F60F}">
   <dimension ref="C1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="90.44140625" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" customWidth="1"/>
+    <col min="6" max="6" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C1" s="47" t="s">
-        <v>11</v>
+    <row r="1" spans="3:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="63" t="s">
+        <v>0</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C2" s="47"/>
+    <row r="2" spans="3:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="63"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="14.4" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D815AF-EB23-485E-ADBC-540B2AA2F226}">
-  <dimension ref="C1:F34"/>
+  <dimension ref="C1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="117.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="117.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="47" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>21</v>
+      <c r="D15" s="48" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>22</v>
+      <c r="E15" s="48" t="s">
+        <v>12</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1" t="s">
+      <c r="D38" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
+      <c r="E38" s="48" t="s">
+        <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="48" t="s">
+        <v>111</v>
       </c>
-      <c r="F13" t="s">
-        <v>97</v>
+      <c r="D39" s="49" t="s">
+        <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="49"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1948,146 +2204,146 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="117.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="117.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="47" t="s">
-        <v>95</v>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="50" t="s">
+        <v>84</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>21</v>
+      <c r="D1" s="53" t="s">
+        <v>10</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>22</v>
+      <c r="E1" s="53" t="s">
+        <v>11</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>93</v>
+      <c r="F1" s="53" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="50"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>92</v>
+      <c r="D12" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2109,78 +2365,78 @@
   <dimension ref="A1:IV455"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="18.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.109375" style="2" customWidth="1"/>
-    <col min="6" max="15" width="3.6640625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="62.33203125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="18.5546875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="2.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.140625" style="2" customWidth="1"/>
+    <col min="6" max="15" width="3.7109375" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="62.28515625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="18.5703125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="2.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="52" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="39.33203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="2.6640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="28.33203125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="23" max="23" width="41.33203125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="24" max="24" width="30.33203125" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="25" max="25" width="2.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="45.44140625" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="27" max="27" width="36.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="2.33203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="2"/>
+    <col min="20" max="20" width="39.28515625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="2.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="23" max="23" width="41.28515625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="24" max="24" width="30.28515625" style="4" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="25" max="25" width="2.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="45.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="27" max="27" width="36.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="2.28515625" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="38" customFormat="1" ht="13.8" thickBot="1">
+    <row r="1" spans="1:256" s="38" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R1" s="36"/>
       <c r="U1" s="36"/>
       <c r="Y1" s="36"/>
       <c r="AB1" s="36"/>
     </row>
-    <row r="2" spans="1:256" s="38" customFormat="1" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A2" s="54" t="s">
-        <v>89</v>
+    <row r="2" spans="1:256" s="38" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>78</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="45" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="R2" s="36"/>
       <c r="U2" s="36"/>
       <c r="Y2" s="36"/>
       <c r="AB2" s="36"/>
     </row>
-    <row r="3" spans="1:256" s="38" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="54" t="s">
-        <v>87</v>
+    <row r="3" spans="1:256" s="38" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>76</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="45" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="R3" s="36"/>
       <c r="U3" s="36"/>
       <c r="Y3" s="36"/>
       <c r="AB3" s="36"/>
     </row>
-    <row r="4" spans="1:256" s="38" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="54" t="s">
-        <v>85</v>
+    <row r="4" spans="1:256" s="38" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>74</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="44" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
@@ -2193,62 +2449,62 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="43" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="42"/>
       <c r="R4" s="36"/>
-      <c r="S4" s="51" t="s">
-        <v>82</v>
+      <c r="S4" s="55" t="s">
+        <v>71</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="57"/>
       <c r="U4" s="36"/>
-      <c r="V4" s="56" t="s">
-        <v>81</v>
+      <c r="V4" s="60" t="s">
+        <v>70</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="58"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="62"/>
       <c r="Y4" s="36"/>
-      <c r="Z4" s="51" t="s">
-        <v>80</v>
+      <c r="Z4" s="55" t="s">
+        <v>69</v>
       </c>
-      <c r="AA4" s="52"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="36"/>
     </row>
-    <row r="5" spans="1:256" s="38" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:256" s="38" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="41"/>
       <c r="F5" s="40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
@@ -2264,19 +2520,19 @@
       <c r="AA5" s="37"/>
       <c r="AB5" s="36"/>
     </row>
-    <row r="6" spans="1:256" s="33" customFormat="1" ht="16.8" thickTop="1" thickBot="1">
+    <row r="6" spans="1:256" s="33" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="37" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -2289,34 +2545,34 @@
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="R6" s="36"/>
       <c r="S6" s="37" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="T6" s="37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="U6" s="36"/>
       <c r="V6" s="37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="W6" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="36"/>
       <c r="AC6" s="35"/>
@@ -2548,79 +2804,79 @@
       <c r="IU6" s="34"/>
       <c r="IV6" s="34"/>
     </row>
-    <row r="7" spans="1:256" s="9" customFormat="1" ht="40.200000000000003" thickBot="1">
+    <row r="7" spans="1:256" s="9" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="16">
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="X7" s="31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Y7" s="14"/>
       <c r="Z7" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="10"/>
@@ -2852,7 +3108,7 @@
       <c r="IU7" s="10"/>
       <c r="IV7" s="10"/>
     </row>
-    <row r="8" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="8" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -3110,7 +3366,7 @@
       <c r="IU8" s="10"/>
       <c r="IV8" s="10"/>
     </row>
-    <row r="9" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="9" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -3368,7 +3624,7 @@
       <c r="IU9" s="10"/>
       <c r="IV9" s="10"/>
     </row>
-    <row r="10" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="10" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3626,7 +3882,7 @@
       <c r="IU10" s="10"/>
       <c r="IV10" s="10"/>
     </row>
-    <row r="11" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="11" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3884,7 +4140,7 @@
       <c r="IU11" s="10"/>
       <c r="IV11" s="10"/>
     </row>
-    <row r="12" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="12" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4142,7 +4398,7 @@
       <c r="IU12" s="10"/>
       <c r="IV12" s="10"/>
     </row>
-    <row r="13" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="13" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4400,7 +4656,7 @@
       <c r="IU13" s="10"/>
       <c r="IV13" s="10"/>
     </row>
-    <row r="14" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="14" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -4658,7 +4914,7 @@
       <c r="IU14" s="10"/>
       <c r="IV14" s="10"/>
     </row>
-    <row r="15" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="15" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -4916,7 +5172,7 @@
       <c r="IU15" s="10"/>
       <c r="IV15" s="10"/>
     </row>
-    <row r="16" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="16" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5174,7 +5430,7 @@
       <c r="IU16" s="10"/>
       <c r="IV16" s="10"/>
     </row>
-    <row r="17" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="17" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5432,7 +5688,7 @@
       <c r="IU17" s="10"/>
       <c r="IV17" s="10"/>
     </row>
-    <row r="18" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="18" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -5690,7 +5946,7 @@
       <c r="IU18" s="10"/>
       <c r="IV18" s="10"/>
     </row>
-    <row r="19" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="19" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5948,7 +6204,7 @@
       <c r="IU19" s="10"/>
       <c r="IV19" s="10"/>
     </row>
-    <row r="20" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="20" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -6206,7 +6462,7 @@
       <c r="IU20" s="10"/>
       <c r="IV20" s="10"/>
     </row>
-    <row r="21" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="21" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6464,7 +6720,7 @@
       <c r="IU21" s="10"/>
       <c r="IV21" s="10"/>
     </row>
-    <row r="22" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="22" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -6722,7 +6978,7 @@
       <c r="IU22" s="10"/>
       <c r="IV22" s="10"/>
     </row>
-    <row r="23" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="23" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6980,7 +7236,7 @@
       <c r="IU23" s="10"/>
       <c r="IV23" s="10"/>
     </row>
-    <row r="24" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="24" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -7238,7 +7494,7 @@
       <c r="IU24" s="10"/>
       <c r="IV24" s="10"/>
     </row>
-    <row r="25" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="25" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7496,7 +7752,7 @@
       <c r="IU25" s="10"/>
       <c r="IV25" s="10"/>
     </row>
-    <row r="26" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="26" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -7754,7 +8010,7 @@
       <c r="IU26" s="10"/>
       <c r="IV26" s="10"/>
     </row>
-    <row r="27" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="27" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -8012,7 +8268,7 @@
       <c r="IU27" s="10"/>
       <c r="IV27" s="10"/>
     </row>
-    <row r="28" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="28" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -8270,7 +8526,7 @@
       <c r="IU28" s="10"/>
       <c r="IV28" s="10"/>
     </row>
-    <row r="29" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="29" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8528,7 +8784,7 @@
       <c r="IU29" s="10"/>
       <c r="IV29" s="10"/>
     </row>
-    <row r="30" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="30" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -8786,7 +9042,7 @@
       <c r="IU30" s="10"/>
       <c r="IV30" s="10"/>
     </row>
-    <row r="31" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="31" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9044,7 +9300,7 @@
       <c r="IU31" s="10"/>
       <c r="IV31" s="10"/>
     </row>
-    <row r="32" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="32" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -9302,7 +9558,7 @@
       <c r="IU32" s="10"/>
       <c r="IV32" s="10"/>
     </row>
-    <row r="33" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="33" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9560,7 +9816,7 @@
       <c r="IU33" s="10"/>
       <c r="IV33" s="10"/>
     </row>
-    <row r="34" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="34" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -9818,7 +10074,7 @@
       <c r="IU34" s="10"/>
       <c r="IV34" s="10"/>
     </row>
-    <row r="35" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="35" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10076,7 +10332,7 @@
       <c r="IU35" s="10"/>
       <c r="IV35" s="10"/>
     </row>
-    <row r="36" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="36" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -10334,7 +10590,7 @@
       <c r="IU36" s="10"/>
       <c r="IV36" s="10"/>
     </row>
-    <row r="37" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="37" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -10592,7 +10848,7 @@
       <c r="IU37" s="10"/>
       <c r="IV37" s="10"/>
     </row>
-    <row r="38" spans="1:256" s="9" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:256" s="9" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -10850,7 +11106,7 @@
       <c r="IU38" s="10"/>
       <c r="IV38" s="10"/>
     </row>
-    <row r="39" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="39" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -11108,7 +11364,7 @@
       <c r="IU39" s="10"/>
       <c r="IV39" s="10"/>
     </row>
-    <row r="40" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="40" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -11366,7 +11622,7 @@
       <c r="IU40" s="10"/>
       <c r="IV40" s="10"/>
     </row>
-    <row r="41" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="41" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -11624,7 +11880,7 @@
       <c r="IU41" s="10"/>
       <c r="IV41" s="10"/>
     </row>
-    <row r="42" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="42" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -11882,7 +12138,7 @@
       <c r="IU42" s="10"/>
       <c r="IV42" s="10"/>
     </row>
-    <row r="43" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="43" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -12140,7 +12396,7 @@
       <c r="IU43" s="10"/>
       <c r="IV43" s="10"/>
     </row>
-    <row r="44" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="44" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -12398,7 +12654,7 @@
       <c r="IU44" s="10"/>
       <c r="IV44" s="10"/>
     </row>
-    <row r="45" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="45" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -12656,7 +12912,7 @@
       <c r="IU45" s="10"/>
       <c r="IV45" s="10"/>
     </row>
-    <row r="46" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="46" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -12914,7 +13170,7 @@
       <c r="IU46" s="10"/>
       <c r="IV46" s="10"/>
     </row>
-    <row r="47" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="47" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -13172,7 +13428,7 @@
       <c r="IU47" s="10"/>
       <c r="IV47" s="10"/>
     </row>
-    <row r="48" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="48" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -13430,7 +13686,7 @@
       <c r="IU48" s="10"/>
       <c r="IV48" s="10"/>
     </row>
-    <row r="49" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="49" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -13688,7 +13944,7 @@
       <c r="IU49" s="10"/>
       <c r="IV49" s="10"/>
     </row>
-    <row r="50" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="50" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -13946,7 +14202,7 @@
       <c r="IU50" s="10"/>
       <c r="IV50" s="10"/>
     </row>
-    <row r="51" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="51" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -14204,7 +14460,7 @@
       <c r="IU51" s="10"/>
       <c r="IV51" s="10"/>
     </row>
-    <row r="52" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="52" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -14462,7 +14718,7 @@
       <c r="IU52" s="10"/>
       <c r="IV52" s="10"/>
     </row>
-    <row r="53" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="53" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -14720,7 +14976,7 @@
       <c r="IU53" s="10"/>
       <c r="IV53" s="10"/>
     </row>
-    <row r="54" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="54" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -14978,7 +15234,7 @@
       <c r="IU54" s="10"/>
       <c r="IV54" s="10"/>
     </row>
-    <row r="55" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="55" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -15236,7 +15492,7 @@
       <c r="IU55" s="10"/>
       <c r="IV55" s="10"/>
     </row>
-    <row r="56" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="56" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -15494,7 +15750,7 @@
       <c r="IU56" s="10"/>
       <c r="IV56" s="10"/>
     </row>
-    <row r="57" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="57" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -15752,7 +16008,7 @@
       <c r="IU57" s="10"/>
       <c r="IV57" s="10"/>
     </row>
-    <row r="58" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="58" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -16010,7 +16266,7 @@
       <c r="IU58" s="10"/>
       <c r="IV58" s="10"/>
     </row>
-    <row r="59" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="59" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -16268,7 +16524,7 @@
       <c r="IU59" s="10"/>
       <c r="IV59" s="10"/>
     </row>
-    <row r="60" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="60" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -16526,7 +16782,7 @@
       <c r="IU60" s="10"/>
       <c r="IV60" s="10"/>
     </row>
-    <row r="61" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="61" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -16784,7 +17040,7 @@
       <c r="IU61" s="10"/>
       <c r="IV61" s="10"/>
     </row>
-    <row r="62" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="62" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -17042,7 +17298,7 @@
       <c r="IU62" s="10"/>
       <c r="IV62" s="10"/>
     </row>
-    <row r="63" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="63" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -17300,7 +17556,7 @@
       <c r="IU63" s="10"/>
       <c r="IV63" s="10"/>
     </row>
-    <row r="64" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="64" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -17558,7 +17814,7 @@
       <c r="IU64" s="10"/>
       <c r="IV64" s="10"/>
     </row>
-    <row r="65" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="65" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -17816,7 +18072,7 @@
       <c r="IU65" s="10"/>
       <c r="IV65" s="10"/>
     </row>
-    <row r="66" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="66" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -18074,7 +18330,7 @@
       <c r="IU66" s="10"/>
       <c r="IV66" s="10"/>
     </row>
-    <row r="67" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="67" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -18332,7 +18588,7 @@
       <c r="IU67" s="10"/>
       <c r="IV67" s="10"/>
     </row>
-    <row r="68" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="68" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -18590,7 +18846,7 @@
       <c r="IU68" s="10"/>
       <c r="IV68" s="10"/>
     </row>
-    <row r="69" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="69" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -18848,7 +19104,7 @@
       <c r="IU69" s="10"/>
       <c r="IV69" s="10"/>
     </row>
-    <row r="70" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="70" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -19106,7 +19362,7 @@
       <c r="IU70" s="10"/>
       <c r="IV70" s="10"/>
     </row>
-    <row r="71" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="71" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -19364,7 +19620,7 @@
       <c r="IU71" s="10"/>
       <c r="IV71" s="10"/>
     </row>
-    <row r="72" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="72" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -19622,7 +19878,7 @@
       <c r="IU72" s="10"/>
       <c r="IV72" s="10"/>
     </row>
-    <row r="73" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="73" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -19880,7 +20136,7 @@
       <c r="IU73" s="10"/>
       <c r="IV73" s="10"/>
     </row>
-    <row r="74" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="74" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -20138,7 +20394,7 @@
       <c r="IU74" s="10"/>
       <c r="IV74" s="10"/>
     </row>
-    <row r="75" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="75" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -20396,7 +20652,7 @@
       <c r="IU75" s="10"/>
       <c r="IV75" s="10"/>
     </row>
-    <row r="76" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="76" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -20654,7 +20910,7 @@
       <c r="IU76" s="10"/>
       <c r="IV76" s="10"/>
     </row>
-    <row r="77" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="77" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -20912,7 +21168,7 @@
       <c r="IU77" s="10"/>
       <c r="IV77" s="10"/>
     </row>
-    <row r="78" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="78" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -21170,7 +21426,7 @@
       <c r="IU78" s="10"/>
       <c r="IV78" s="10"/>
     </row>
-    <row r="79" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="79" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -21428,7 +21684,7 @@
       <c r="IU79" s="10"/>
       <c r="IV79" s="10"/>
     </row>
-    <row r="80" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="80" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -21686,7 +21942,7 @@
       <c r="IU80" s="10"/>
       <c r="IV80" s="10"/>
     </row>
-    <row r="81" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="81" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -21944,7 +22200,7 @@
       <c r="IU81" s="10"/>
       <c r="IV81" s="10"/>
     </row>
-    <row r="82" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="82" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
@@ -22202,7 +22458,7 @@
       <c r="IU82" s="10"/>
       <c r="IV82" s="10"/>
     </row>
-    <row r="83" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="83" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -22460,7 +22716,7 @@
       <c r="IU83" s="10"/>
       <c r="IV83" s="10"/>
     </row>
-    <row r="84" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="84" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -22718,7 +22974,7 @@
       <c r="IU84" s="10"/>
       <c r="IV84" s="10"/>
     </row>
-    <row r="85" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="85" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -22976,7 +23232,7 @@
       <c r="IU85" s="10"/>
       <c r="IV85" s="10"/>
     </row>
-    <row r="86" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="86" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -23234,7 +23490,7 @@
       <c r="IU86" s="10"/>
       <c r="IV86" s="10"/>
     </row>
-    <row r="87" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="87" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -23492,7 +23748,7 @@
       <c r="IU87" s="10"/>
       <c r="IV87" s="10"/>
     </row>
-    <row r="88" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="88" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
@@ -23750,7 +24006,7 @@
       <c r="IU88" s="10"/>
       <c r="IV88" s="10"/>
     </row>
-    <row r="89" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="89" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -24008,7 +24264,7 @@
       <c r="IU89" s="10"/>
       <c r="IV89" s="10"/>
     </row>
-    <row r="90" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="90" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -24266,7 +24522,7 @@
       <c r="IU90" s="10"/>
       <c r="IV90" s="10"/>
     </row>
-    <row r="91" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="91" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -24524,7 +24780,7 @@
       <c r="IU91" s="10"/>
       <c r="IV91" s="10"/>
     </row>
-    <row r="92" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="92" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -24782,7 +25038,7 @@
       <c r="IU92" s="10"/>
       <c r="IV92" s="10"/>
     </row>
-    <row r="93" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="93" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -25040,7 +25296,7 @@
       <c r="IU93" s="10"/>
       <c r="IV93" s="10"/>
     </row>
-    <row r="94" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="94" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -25298,7 +25554,7 @@
       <c r="IU94" s="10"/>
       <c r="IV94" s="10"/>
     </row>
-    <row r="95" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="95" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -25556,7 +25812,7 @@
       <c r="IU95" s="10"/>
       <c r="IV95" s="10"/>
     </row>
-    <row r="96" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="96" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -25814,7 +26070,7 @@
       <c r="IU96" s="10"/>
       <c r="IV96" s="10"/>
     </row>
-    <row r="97" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="97" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -26072,7 +26328,7 @@
       <c r="IU97" s="10"/>
       <c r="IV97" s="10"/>
     </row>
-    <row r="98" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="98" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -26330,7 +26586,7 @@
       <c r="IU98" s="10"/>
       <c r="IV98" s="10"/>
     </row>
-    <row r="99" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="99" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -26588,7 +26844,7 @@
       <c r="IU99" s="10"/>
       <c r="IV99" s="10"/>
     </row>
-    <row r="100" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="100" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -26846,7 +27102,7 @@
       <c r="IU100" s="10"/>
       <c r="IV100" s="10"/>
     </row>
-    <row r="101" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="101" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -27104,7 +27360,7 @@
       <c r="IU101" s="10"/>
       <c r="IV101" s="10"/>
     </row>
-    <row r="102" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="102" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -27362,7 +27618,7 @@
       <c r="IU102" s="10"/>
       <c r="IV102" s="10"/>
     </row>
-    <row r="103" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="103" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -27620,7 +27876,7 @@
       <c r="IU103" s="10"/>
       <c r="IV103" s="10"/>
     </row>
-    <row r="104" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="104" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -27878,7 +28134,7 @@
       <c r="IU104" s="10"/>
       <c r="IV104" s="10"/>
     </row>
-    <row r="105" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="105" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -28136,7 +28392,7 @@
       <c r="IU105" s="10"/>
       <c r="IV105" s="10"/>
     </row>
-    <row r="106" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="106" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -28394,7 +28650,7 @@
       <c r="IU106" s="10"/>
       <c r="IV106" s="10"/>
     </row>
-    <row r="107" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="107" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -28652,7 +28908,7 @@
       <c r="IU107" s="10"/>
       <c r="IV107" s="10"/>
     </row>
-    <row r="108" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="108" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="30"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -28910,7 +29166,7 @@
       <c r="IU108" s="10"/>
       <c r="IV108" s="10"/>
     </row>
-    <row r="109" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="109" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -29168,7 +29424,7 @@
       <c r="IU109" s="10"/>
       <c r="IV109" s="10"/>
     </row>
-    <row r="110" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="110" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="30"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
@@ -29426,7 +29682,7 @@
       <c r="IU110" s="10"/>
       <c r="IV110" s="10"/>
     </row>
-    <row r="111" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="111" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -29684,7 +29940,7 @@
       <c r="IU111" s="10"/>
       <c r="IV111" s="10"/>
     </row>
-    <row r="112" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="112" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
@@ -29942,7 +30198,7 @@
       <c r="IU112" s="10"/>
       <c r="IV112" s="10"/>
     </row>
-    <row r="113" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="113" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -30200,7 +30456,7 @@
       <c r="IU113" s="10"/>
       <c r="IV113" s="10"/>
     </row>
-    <row r="114" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="114" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
@@ -30458,7 +30714,7 @@
       <c r="IU114" s="10"/>
       <c r="IV114" s="10"/>
     </row>
-    <row r="115" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="115" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -30716,7 +30972,7 @@
       <c r="IU115" s="10"/>
       <c r="IV115" s="10"/>
     </row>
-    <row r="116" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="116" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="30"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
@@ -30974,7 +31230,7 @@
       <c r="IU116" s="10"/>
       <c r="IV116" s="10"/>
     </row>
-    <row r="117" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="117" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -31232,7 +31488,7 @@
       <c r="IU117" s="10"/>
       <c r="IV117" s="10"/>
     </row>
-    <row r="118" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="118" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="30"/>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
@@ -31490,7 +31746,7 @@
       <c r="IU118" s="10"/>
       <c r="IV118" s="10"/>
     </row>
-    <row r="119" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="119" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -31748,7 +32004,7 @@
       <c r="IU119" s="10"/>
       <c r="IV119" s="10"/>
     </row>
-    <row r="120" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="120" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
@@ -32006,7 +32262,7 @@
       <c r="IU120" s="10"/>
       <c r="IV120" s="10"/>
     </row>
-    <row r="121" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="121" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -32264,7 +32520,7 @@
       <c r="IU121" s="10"/>
       <c r="IV121" s="10"/>
     </row>
-    <row r="122" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="122" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -32522,7 +32778,7 @@
       <c r="IU122" s="10"/>
       <c r="IV122" s="10"/>
     </row>
-    <row r="123" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="123" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -32780,7 +33036,7 @@
       <c r="IU123" s="10"/>
       <c r="IV123" s="10"/>
     </row>
-    <row r="124" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="124" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -33038,7 +33294,7 @@
       <c r="IU124" s="10"/>
       <c r="IV124" s="10"/>
     </row>
-    <row r="125" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="125" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -33296,7 +33552,7 @@
       <c r="IU125" s="10"/>
       <c r="IV125" s="10"/>
     </row>
-    <row r="126" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="126" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -33554,7 +33810,7 @@
       <c r="IU126" s="10"/>
       <c r="IV126" s="10"/>
     </row>
-    <row r="127" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="127" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -33812,7 +34068,7 @@
       <c r="IU127" s="10"/>
       <c r="IV127" s="10"/>
     </row>
-    <row r="128" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="128" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
@@ -34070,7 +34326,7 @@
       <c r="IU128" s="10"/>
       <c r="IV128" s="10"/>
     </row>
-    <row r="129" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="129" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -34328,7 +34584,7 @@
       <c r="IU129" s="10"/>
       <c r="IV129" s="10"/>
     </row>
-    <row r="130" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="130" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="30"/>
       <c r="B130" s="30"/>
       <c r="C130" s="30"/>
@@ -34586,7 +34842,7 @@
       <c r="IU130" s="10"/>
       <c r="IV130" s="10"/>
     </row>
-    <row r="131" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="131" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -34844,7 +35100,7 @@
       <c r="IU131" s="10"/>
       <c r="IV131" s="10"/>
     </row>
-    <row r="132" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="132" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
@@ -35102,7 +35358,7 @@
       <c r="IU132" s="10"/>
       <c r="IV132" s="10"/>
     </row>
-    <row r="133" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="133" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -35360,7 +35616,7 @@
       <c r="IU133" s="10"/>
       <c r="IV133" s="10"/>
     </row>
-    <row r="134" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="134" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30"/>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
@@ -35618,7 +35874,7 @@
       <c r="IU134" s="10"/>
       <c r="IV134" s="10"/>
     </row>
-    <row r="135" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="135" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -35876,7 +36132,7 @@
       <c r="IU135" s="10"/>
       <c r="IV135" s="10"/>
     </row>
-    <row r="136" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="136" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="30"/>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
@@ -36134,7 +36390,7 @@
       <c r="IU136" s="10"/>
       <c r="IV136" s="10"/>
     </row>
-    <row r="137" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="137" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -36392,7 +36648,7 @@
       <c r="IU137" s="10"/>
       <c r="IV137" s="10"/>
     </row>
-    <row r="138" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="138" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="30"/>
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
@@ -36650,7 +36906,7 @@
       <c r="IU138" s="10"/>
       <c r="IV138" s="10"/>
     </row>
-    <row r="139" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="139" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -36908,7 +37164,7 @@
       <c r="IU139" s="10"/>
       <c r="IV139" s="10"/>
     </row>
-    <row r="140" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="140" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="30"/>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
@@ -37166,7 +37422,7 @@
       <c r="IU140" s="10"/>
       <c r="IV140" s="10"/>
     </row>
-    <row r="141" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="141" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -37424,7 +37680,7 @@
       <c r="IU141" s="10"/>
       <c r="IV141" s="10"/>
     </row>
-    <row r="142" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="142" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="30"/>
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
@@ -37682,7 +37938,7 @@
       <c r="IU142" s="10"/>
       <c r="IV142" s="10"/>
     </row>
-    <row r="143" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="143" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -37940,7 +38196,7 @@
       <c r="IU143" s="10"/>
       <c r="IV143" s="10"/>
     </row>
-    <row r="144" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="144" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="30"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -38198,7 +38454,7 @@
       <c r="IU144" s="10"/>
       <c r="IV144" s="10"/>
     </row>
-    <row r="145" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="145" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -38456,7 +38712,7 @@
       <c r="IU145" s="10"/>
       <c r="IV145" s="10"/>
     </row>
-    <row r="146" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="146" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="30"/>
       <c r="B146" s="30"/>
       <c r="C146" s="30"/>
@@ -38714,7 +38970,7 @@
       <c r="IU146" s="10"/>
       <c r="IV146" s="10"/>
     </row>
-    <row r="147" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="147" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -38972,7 +39228,7 @@
       <c r="IU147" s="10"/>
       <c r="IV147" s="10"/>
     </row>
-    <row r="148" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="148" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30"/>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
@@ -39230,7 +39486,7 @@
       <c r="IU148" s="10"/>
       <c r="IV148" s="10"/>
     </row>
-    <row r="149" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="149" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -39488,7 +39744,7 @@
       <c r="IU149" s="10"/>
       <c r="IV149" s="10"/>
     </row>
-    <row r="150" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="150" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="30"/>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
@@ -39746,7 +40002,7 @@
       <c r="IU150" s="10"/>
       <c r="IV150" s="10"/>
     </row>
-    <row r="151" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="151" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -40004,7 +40260,7 @@
       <c r="IU151" s="10"/>
       <c r="IV151" s="10"/>
     </row>
-    <row r="152" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="152" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -40262,7 +40518,7 @@
       <c r="IU152" s="10"/>
       <c r="IV152" s="10"/>
     </row>
-    <row r="153" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="153" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -40520,7 +40776,7 @@
       <c r="IU153" s="10"/>
       <c r="IV153" s="10"/>
     </row>
-    <row r="154" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="154" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="30"/>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
@@ -40778,7 +41034,7 @@
       <c r="IU154" s="10"/>
       <c r="IV154" s="10"/>
     </row>
-    <row r="155" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="155" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -41036,7 +41292,7 @@
       <c r="IU155" s="10"/>
       <c r="IV155" s="10"/>
     </row>
-    <row r="156" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="156" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="30"/>
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
@@ -41294,7 +41550,7 @@
       <c r="IU156" s="10"/>
       <c r="IV156" s="10"/>
     </row>
-    <row r="157" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="157" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -41552,7 +41808,7 @@
       <c r="IU157" s="10"/>
       <c r="IV157" s="10"/>
     </row>
-    <row r="158" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="158" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -41810,7 +42066,7 @@
       <c r="IU158" s="10"/>
       <c r="IV158" s="10"/>
     </row>
-    <row r="159" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="159" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -42068,7 +42324,7 @@
       <c r="IU159" s="10"/>
       <c r="IV159" s="10"/>
     </row>
-    <row r="160" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="160" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="30"/>
       <c r="B160" s="30"/>
       <c r="C160" s="30"/>
@@ -42326,7 +42582,7 @@
       <c r="IU160" s="10"/>
       <c r="IV160" s="10"/>
     </row>
-    <row r="161" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="161" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
@@ -42584,7 +42840,7 @@
       <c r="IU161" s="10"/>
       <c r="IV161" s="10"/>
     </row>
-    <row r="162" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="162" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="30"/>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -42842,7 +43098,7 @@
       <c r="IU162" s="10"/>
       <c r="IV162" s="10"/>
     </row>
-    <row r="163" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="163" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -43100,7 +43356,7 @@
       <c r="IU163" s="10"/>
       <c r="IV163" s="10"/>
     </row>
-    <row r="164" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="164" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="30"/>
       <c r="B164" s="30"/>
       <c r="C164" s="30"/>
@@ -43358,7 +43614,7 @@
       <c r="IU164" s="10"/>
       <c r="IV164" s="10"/>
     </row>
-    <row r="165" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="165" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
@@ -43616,7 +43872,7 @@
       <c r="IU165" s="10"/>
       <c r="IV165" s="10"/>
     </row>
-    <row r="166" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="166" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="30"/>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -43874,7 +44130,7 @@
       <c r="IU166" s="10"/>
       <c r="IV166" s="10"/>
     </row>
-    <row r="167" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="167" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -44132,7 +44388,7 @@
       <c r="IU167" s="10"/>
       <c r="IV167" s="10"/>
     </row>
-    <row r="168" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="168" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="30"/>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -44390,7 +44646,7 @@
       <c r="IU168" s="10"/>
       <c r="IV168" s="10"/>
     </row>
-    <row r="169" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="169" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
@@ -44648,7 +44904,7 @@
       <c r="IU169" s="10"/>
       <c r="IV169" s="10"/>
     </row>
-    <row r="170" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="170" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -44906,7 +45162,7 @@
       <c r="IU170" s="10"/>
       <c r="IV170" s="10"/>
     </row>
-    <row r="171" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="171" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
@@ -45164,7 +45420,7 @@
       <c r="IU171" s="10"/>
       <c r="IV171" s="10"/>
     </row>
-    <row r="172" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="172" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -45422,7 +45678,7 @@
       <c r="IU172" s="10"/>
       <c r="IV172" s="10"/>
     </row>
-    <row r="173" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="173" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
@@ -45680,7 +45936,7 @@
       <c r="IU173" s="10"/>
       <c r="IV173" s="10"/>
     </row>
-    <row r="174" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="174" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -45938,7 +46194,7 @@
       <c r="IU174" s="10"/>
       <c r="IV174" s="10"/>
     </row>
-    <row r="175" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="175" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
@@ -46196,7 +46452,7 @@
       <c r="IU175" s="10"/>
       <c r="IV175" s="10"/>
     </row>
-    <row r="176" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="176" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -46454,7 +46710,7 @@
       <c r="IU176" s="10"/>
       <c r="IV176" s="10"/>
     </row>
-    <row r="177" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="177" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -46712,7 +46968,7 @@
       <c r="IU177" s="10"/>
       <c r="IV177" s="10"/>
     </row>
-    <row r="178" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="178" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
@@ -46970,7 +47226,7 @@
       <c r="IU178" s="10"/>
       <c r="IV178" s="10"/>
     </row>
-    <row r="179" spans="1:256" s="9" customFormat="1" ht="16.2" thickBot="1">
+    <row r="179" spans="1:256" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -47228,1657 +47484,1657 @@
       <c r="IU179" s="10"/>
       <c r="IV179" s="10"/>
     </row>
-    <row r="180" spans="1:256">
+    <row r="180" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R180" s="8"/>
       <c r="U180" s="8"/>
       <c r="Y180" s="8"/>
       <c r="AB180" s="8"/>
     </row>
-    <row r="181" spans="1:256">
+    <row r="181" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R181" s="8"/>
       <c r="U181" s="8"/>
       <c r="Y181" s="8"/>
       <c r="AB181" s="8"/>
     </row>
-    <row r="182" spans="1:256">
+    <row r="182" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R182" s="8"/>
       <c r="U182" s="8"/>
       <c r="Y182" s="8"/>
       <c r="AB182" s="8"/>
     </row>
-    <row r="183" spans="1:256">
+    <row r="183" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R183" s="8"/>
       <c r="U183" s="8"/>
       <c r="Y183" s="8"/>
       <c r="AB183" s="8"/>
     </row>
-    <row r="184" spans="1:256">
+    <row r="184" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R184" s="8"/>
       <c r="U184" s="8"/>
       <c r="Y184" s="8"/>
       <c r="AB184" s="8"/>
     </row>
-    <row r="185" spans="1:256">
+    <row r="185" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R185" s="8"/>
       <c r="U185" s="8"/>
       <c r="Y185" s="8"/>
       <c r="AB185" s="8"/>
     </row>
-    <row r="186" spans="1:256">
+    <row r="186" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R186" s="8"/>
       <c r="U186" s="8"/>
       <c r="Y186" s="8"/>
       <c r="AB186" s="8"/>
     </row>
-    <row r="187" spans="1:256">
+    <row r="187" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R187" s="8"/>
       <c r="U187" s="8"/>
       <c r="Y187" s="8"/>
       <c r="AB187" s="8"/>
     </row>
-    <row r="188" spans="1:256">
+    <row r="188" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R188" s="8"/>
       <c r="U188" s="8"/>
       <c r="Y188" s="8"/>
       <c r="AB188" s="8"/>
     </row>
-    <row r="189" spans="1:256">
+    <row r="189" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R189" s="8"/>
       <c r="U189" s="8"/>
       <c r="Y189" s="8"/>
       <c r="AB189" s="8"/>
     </row>
-    <row r="190" spans="1:256">
+    <row r="190" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R190" s="8"/>
       <c r="U190" s="8"/>
       <c r="Y190" s="8"/>
       <c r="AB190" s="8"/>
     </row>
-    <row r="191" spans="1:256">
+    <row r="191" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R191" s="8"/>
       <c r="U191" s="8"/>
       <c r="Y191" s="8"/>
       <c r="AB191" s="8"/>
     </row>
-    <row r="192" spans="1:256">
+    <row r="192" spans="1:256" x14ac:dyDescent="0.2">
       <c r="R192" s="8"/>
       <c r="U192" s="8"/>
       <c r="Y192" s="8"/>
       <c r="AB192" s="8"/>
     </row>
-    <row r="193" spans="18:28">
+    <row r="193" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R193" s="8"/>
       <c r="U193" s="8"/>
       <c r="Y193" s="8"/>
       <c r="AB193" s="8"/>
     </row>
-    <row r="194" spans="18:28">
+    <row r="194" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R194" s="8"/>
       <c r="U194" s="8"/>
       <c r="Y194" s="8"/>
       <c r="AB194" s="8"/>
     </row>
-    <row r="195" spans="18:28">
+    <row r="195" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R195" s="8"/>
       <c r="U195" s="8"/>
       <c r="Y195" s="8"/>
       <c r="AB195" s="8"/>
     </row>
-    <row r="196" spans="18:28">
+    <row r="196" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R196" s="8"/>
       <c r="U196" s="8"/>
       <c r="Y196" s="8"/>
       <c r="AB196" s="8"/>
     </row>
-    <row r="197" spans="18:28">
+    <row r="197" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R197" s="8"/>
       <c r="U197" s="8"/>
       <c r="Y197" s="8"/>
       <c r="AB197" s="8"/>
     </row>
-    <row r="198" spans="18:28">
+    <row r="198" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R198" s="8"/>
       <c r="U198" s="8"/>
       <c r="Y198" s="8"/>
       <c r="AB198" s="8"/>
     </row>
-    <row r="199" spans="18:28">
+    <row r="199" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R199" s="8"/>
       <c r="U199" s="8"/>
       <c r="Y199" s="8"/>
       <c r="AB199" s="8"/>
     </row>
-    <row r="200" spans="18:28">
+    <row r="200" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R200" s="8"/>
       <c r="U200" s="8"/>
       <c r="Y200" s="8"/>
       <c r="AB200" s="8"/>
     </row>
-    <row r="201" spans="18:28">
+    <row r="201" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R201" s="8"/>
       <c r="U201" s="8"/>
       <c r="Y201" s="8"/>
       <c r="AB201" s="8"/>
     </row>
-    <row r="202" spans="18:28">
+    <row r="202" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R202" s="8"/>
       <c r="U202" s="8"/>
       <c r="Y202" s="8"/>
       <c r="AB202" s="8"/>
     </row>
-    <row r="203" spans="18:28">
+    <row r="203" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R203" s="8"/>
       <c r="U203" s="8"/>
       <c r="Y203" s="8"/>
       <c r="AB203" s="8"/>
     </row>
-    <row r="204" spans="18:28">
+    <row r="204" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R204" s="8"/>
       <c r="U204" s="8"/>
       <c r="Y204" s="8"/>
       <c r="AB204" s="8"/>
     </row>
-    <row r="205" spans="18:28">
+    <row r="205" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R205" s="8"/>
       <c r="U205" s="8"/>
       <c r="Y205" s="8"/>
       <c r="AB205" s="8"/>
     </row>
-    <row r="206" spans="18:28">
+    <row r="206" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R206" s="8"/>
       <c r="U206" s="8"/>
       <c r="Y206" s="8"/>
       <c r="AB206" s="8"/>
     </row>
-    <row r="207" spans="18:28">
+    <row r="207" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R207" s="8"/>
       <c r="U207" s="8"/>
       <c r="Y207" s="8"/>
       <c r="AB207" s="8"/>
     </row>
-    <row r="208" spans="18:28">
+    <row r="208" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R208" s="8"/>
       <c r="U208" s="8"/>
       <c r="Y208" s="8"/>
       <c r="AB208" s="8"/>
     </row>
-    <row r="209" spans="18:28">
+    <row r="209" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R209" s="8"/>
       <c r="U209" s="8"/>
       <c r="Y209" s="8"/>
       <c r="AB209" s="8"/>
     </row>
-    <row r="210" spans="18:28">
+    <row r="210" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R210" s="8"/>
       <c r="U210" s="8"/>
       <c r="Y210" s="8"/>
       <c r="AB210" s="8"/>
     </row>
-    <row r="211" spans="18:28">
+    <row r="211" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R211" s="8"/>
       <c r="U211" s="8"/>
       <c r="Y211" s="8"/>
       <c r="AB211" s="8"/>
     </row>
-    <row r="212" spans="18:28">
+    <row r="212" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R212" s="8"/>
       <c r="U212" s="8"/>
       <c r="Y212" s="8"/>
       <c r="AB212" s="8"/>
     </row>
-    <row r="213" spans="18:28">
+    <row r="213" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R213" s="8"/>
       <c r="U213" s="8"/>
       <c r="Y213" s="8"/>
       <c r="AB213" s="8"/>
     </row>
-    <row r="214" spans="18:28">
+    <row r="214" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R214" s="8"/>
       <c r="U214" s="8"/>
       <c r="Y214" s="8"/>
       <c r="AB214" s="8"/>
     </row>
-    <row r="215" spans="18:28">
+    <row r="215" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R215" s="8"/>
       <c r="U215" s="8"/>
       <c r="Y215" s="8"/>
       <c r="AB215" s="8"/>
     </row>
-    <row r="216" spans="18:28">
+    <row r="216" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R216" s="8"/>
       <c r="U216" s="8"/>
       <c r="Y216" s="8"/>
       <c r="AB216" s="8"/>
     </row>
-    <row r="217" spans="18:28">
+    <row r="217" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R217" s="8"/>
       <c r="U217" s="8"/>
       <c r="Y217" s="8"/>
       <c r="AB217" s="8"/>
     </row>
-    <row r="218" spans="18:28">
+    <row r="218" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R218" s="8"/>
       <c r="U218" s="8"/>
       <c r="Y218" s="8"/>
       <c r="AB218" s="8"/>
     </row>
-    <row r="219" spans="18:28">
+    <row r="219" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R219" s="8"/>
       <c r="U219" s="8"/>
       <c r="Y219" s="8"/>
       <c r="AB219" s="8"/>
     </row>
-    <row r="220" spans="18:28">
+    <row r="220" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R220" s="8"/>
       <c r="U220" s="8"/>
       <c r="Y220" s="8"/>
       <c r="AB220" s="8"/>
     </row>
-    <row r="221" spans="18:28">
+    <row r="221" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R221" s="8"/>
       <c r="U221" s="8"/>
       <c r="Y221" s="8"/>
       <c r="AB221" s="8"/>
     </row>
-    <row r="222" spans="18:28">
+    <row r="222" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R222" s="8"/>
       <c r="U222" s="8"/>
       <c r="Y222" s="8"/>
       <c r="AB222" s="8"/>
     </row>
-    <row r="223" spans="18:28">
+    <row r="223" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R223" s="8"/>
       <c r="U223" s="8"/>
       <c r="Y223" s="8"/>
       <c r="AB223" s="8"/>
     </row>
-    <row r="224" spans="18:28">
+    <row r="224" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R224" s="8"/>
       <c r="U224" s="8"/>
       <c r="Y224" s="8"/>
       <c r="AB224" s="8"/>
     </row>
-    <row r="225" spans="18:28">
+    <row r="225" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R225" s="8"/>
       <c r="U225" s="8"/>
       <c r="Y225" s="8"/>
       <c r="AB225" s="8"/>
     </row>
-    <row r="226" spans="18:28">
+    <row r="226" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R226" s="8"/>
       <c r="U226" s="8"/>
       <c r="Y226" s="8"/>
       <c r="AB226" s="8"/>
     </row>
-    <row r="227" spans="18:28">
+    <row r="227" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R227" s="8"/>
       <c r="U227" s="8"/>
       <c r="Y227" s="8"/>
       <c r="AB227" s="8"/>
     </row>
-    <row r="228" spans="18:28">
+    <row r="228" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R228" s="8"/>
       <c r="U228" s="8"/>
       <c r="Y228" s="8"/>
       <c r="AB228" s="8"/>
     </row>
-    <row r="229" spans="18:28">
+    <row r="229" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R229" s="8"/>
       <c r="U229" s="8"/>
       <c r="Y229" s="8"/>
       <c r="AB229" s="8"/>
     </row>
-    <row r="230" spans="18:28">
+    <row r="230" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R230" s="8"/>
       <c r="U230" s="8"/>
       <c r="Y230" s="8"/>
       <c r="AB230" s="8"/>
     </row>
-    <row r="231" spans="18:28">
+    <row r="231" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R231" s="8"/>
       <c r="U231" s="8"/>
       <c r="Y231" s="8"/>
       <c r="AB231" s="8"/>
     </row>
-    <row r="232" spans="18:28">
+    <row r="232" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R232" s="8"/>
       <c r="U232" s="8"/>
       <c r="Y232" s="8"/>
       <c r="AB232" s="8"/>
     </row>
-    <row r="233" spans="18:28">
+    <row r="233" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R233" s="8"/>
       <c r="U233" s="8"/>
       <c r="Y233" s="8"/>
       <c r="AB233" s="8"/>
     </row>
-    <row r="234" spans="18:28">
+    <row r="234" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R234" s="8"/>
       <c r="U234" s="8"/>
       <c r="Y234" s="8"/>
       <c r="AB234" s="8"/>
     </row>
-    <row r="235" spans="18:28">
+    <row r="235" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R235" s="8"/>
       <c r="U235" s="8"/>
       <c r="Y235" s="8"/>
       <c r="AB235" s="8"/>
     </row>
-    <row r="236" spans="18:28">
+    <row r="236" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R236" s="8"/>
       <c r="U236" s="8"/>
       <c r="Y236" s="8"/>
       <c r="AB236" s="8"/>
     </row>
-    <row r="237" spans="18:28">
+    <row r="237" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R237" s="8"/>
       <c r="U237" s="8"/>
       <c r="Y237" s="8"/>
       <c r="AB237" s="8"/>
     </row>
-    <row r="238" spans="18:28">
+    <row r="238" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R238" s="8"/>
       <c r="U238" s="8"/>
       <c r="Y238" s="8"/>
       <c r="AB238" s="8"/>
     </row>
-    <row r="239" spans="18:28">
+    <row r="239" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R239" s="8"/>
       <c r="U239" s="8"/>
       <c r="Y239" s="8"/>
       <c r="AB239" s="8"/>
     </row>
-    <row r="240" spans="18:28">
+    <row r="240" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R240" s="8"/>
       <c r="U240" s="8"/>
       <c r="Y240" s="8"/>
       <c r="AB240" s="8"/>
     </row>
-    <row r="241" spans="18:28">
+    <row r="241" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R241" s="8"/>
       <c r="U241" s="8"/>
       <c r="Y241" s="8"/>
       <c r="AB241" s="8"/>
     </row>
-    <row r="242" spans="18:28">
+    <row r="242" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R242" s="8"/>
       <c r="U242" s="8"/>
       <c r="Y242" s="8"/>
       <c r="AB242" s="8"/>
     </row>
-    <row r="243" spans="18:28">
+    <row r="243" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R243" s="8"/>
       <c r="U243" s="8"/>
       <c r="Y243" s="8"/>
       <c r="AB243" s="8"/>
     </row>
-    <row r="244" spans="18:28">
+    <row r="244" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R244" s="8"/>
       <c r="U244" s="8"/>
       <c r="Y244" s="8"/>
       <c r="AB244" s="8"/>
     </row>
-    <row r="245" spans="18:28">
+    <row r="245" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R245" s="8"/>
       <c r="U245" s="8"/>
       <c r="Y245" s="8"/>
       <c r="AB245" s="8"/>
     </row>
-    <row r="246" spans="18:28">
+    <row r="246" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R246" s="8"/>
       <c r="U246" s="8"/>
       <c r="Y246" s="8"/>
       <c r="AB246" s="8"/>
     </row>
-    <row r="247" spans="18:28">
+    <row r="247" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R247" s="8"/>
       <c r="U247" s="8"/>
       <c r="Y247" s="8"/>
       <c r="AB247" s="8"/>
     </row>
-    <row r="248" spans="18:28">
+    <row r="248" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R248" s="8"/>
       <c r="U248" s="8"/>
       <c r="Y248" s="8"/>
       <c r="AB248" s="8"/>
     </row>
-    <row r="249" spans="18:28">
+    <row r="249" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R249" s="8"/>
       <c r="U249" s="8"/>
       <c r="Y249" s="8"/>
       <c r="AB249" s="8"/>
     </row>
-    <row r="250" spans="18:28">
+    <row r="250" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R250" s="8"/>
       <c r="U250" s="8"/>
       <c r="Y250" s="8"/>
       <c r="AB250" s="8"/>
     </row>
-    <row r="251" spans="18:28">
+    <row r="251" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R251" s="8"/>
       <c r="U251" s="8"/>
       <c r="Y251" s="8"/>
       <c r="AB251" s="8"/>
     </row>
-    <row r="252" spans="18:28">
+    <row r="252" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R252" s="8"/>
       <c r="U252" s="8"/>
       <c r="Y252" s="8"/>
       <c r="AB252" s="8"/>
     </row>
-    <row r="253" spans="18:28">
+    <row r="253" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R253" s="8"/>
       <c r="U253" s="8"/>
       <c r="Y253" s="8"/>
       <c r="AB253" s="8"/>
     </row>
-    <row r="254" spans="18:28">
+    <row r="254" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R254" s="8"/>
       <c r="U254" s="8"/>
       <c r="Y254" s="8"/>
       <c r="AB254" s="8"/>
     </row>
-    <row r="255" spans="18:28">
+    <row r="255" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R255" s="8"/>
       <c r="U255" s="8"/>
       <c r="Y255" s="8"/>
       <c r="AB255" s="8"/>
     </row>
-    <row r="256" spans="18:28">
+    <row r="256" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R256" s="8"/>
       <c r="U256" s="8"/>
       <c r="Y256" s="8"/>
       <c r="AB256" s="8"/>
     </row>
-    <row r="257" spans="18:28">
+    <row r="257" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R257" s="8"/>
       <c r="U257" s="8"/>
       <c r="Y257" s="8"/>
       <c r="AB257" s="8"/>
     </row>
-    <row r="258" spans="18:28">
+    <row r="258" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R258" s="8"/>
       <c r="U258" s="8"/>
       <c r="Y258" s="8"/>
       <c r="AB258" s="8"/>
     </row>
-    <row r="259" spans="18:28">
+    <row r="259" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R259" s="8"/>
       <c r="U259" s="8"/>
       <c r="Y259" s="8"/>
       <c r="AB259" s="8"/>
     </row>
-    <row r="260" spans="18:28">
+    <row r="260" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R260" s="8"/>
       <c r="U260" s="8"/>
       <c r="Y260" s="8"/>
       <c r="AB260" s="8"/>
     </row>
-    <row r="261" spans="18:28">
+    <row r="261" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R261" s="8"/>
       <c r="U261" s="8"/>
       <c r="Y261" s="8"/>
       <c r="AB261" s="8"/>
     </row>
-    <row r="262" spans="18:28">
+    <row r="262" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R262" s="8"/>
       <c r="U262" s="8"/>
       <c r="Y262" s="8"/>
       <c r="AB262" s="8"/>
     </row>
-    <row r="263" spans="18:28">
+    <row r="263" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R263" s="8"/>
       <c r="U263" s="8"/>
       <c r="Y263" s="8"/>
       <c r="AB263" s="8"/>
     </row>
-    <row r="264" spans="18:28">
+    <row r="264" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R264" s="8"/>
       <c r="U264" s="8"/>
       <c r="Y264" s="8"/>
       <c r="AB264" s="8"/>
     </row>
-    <row r="265" spans="18:28">
+    <row r="265" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R265" s="8"/>
       <c r="U265" s="8"/>
       <c r="Y265" s="8"/>
       <c r="AB265" s="8"/>
     </row>
-    <row r="266" spans="18:28">
+    <row r="266" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R266" s="8"/>
       <c r="U266" s="8"/>
       <c r="Y266" s="8"/>
       <c r="AB266" s="8"/>
     </row>
-    <row r="267" spans="18:28">
+    <row r="267" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R267" s="8"/>
       <c r="U267" s="8"/>
       <c r="Y267" s="8"/>
       <c r="AB267" s="8"/>
     </row>
-    <row r="268" spans="18:28">
+    <row r="268" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R268" s="8"/>
       <c r="U268" s="8"/>
       <c r="Y268" s="8"/>
       <c r="AB268" s="8"/>
     </row>
-    <row r="269" spans="18:28">
+    <row r="269" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R269" s="8"/>
       <c r="U269" s="8"/>
       <c r="Y269" s="8"/>
       <c r="AB269" s="8"/>
     </row>
-    <row r="270" spans="18:28">
+    <row r="270" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R270" s="8"/>
       <c r="U270" s="8"/>
       <c r="Y270" s="8"/>
       <c r="AB270" s="8"/>
     </row>
-    <row r="271" spans="18:28">
+    <row r="271" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R271" s="8"/>
       <c r="U271" s="8"/>
       <c r="Y271" s="8"/>
       <c r="AB271" s="8"/>
     </row>
-    <row r="272" spans="18:28">
+    <row r="272" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R272" s="8"/>
       <c r="U272" s="8"/>
       <c r="Y272" s="8"/>
       <c r="AB272" s="8"/>
     </row>
-    <row r="273" spans="18:28">
+    <row r="273" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R273" s="8"/>
       <c r="U273" s="8"/>
       <c r="Y273" s="8"/>
       <c r="AB273" s="8"/>
     </row>
-    <row r="274" spans="18:28">
+    <row r="274" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R274" s="8"/>
       <c r="U274" s="8"/>
       <c r="Y274" s="8"/>
       <c r="AB274" s="8"/>
     </row>
-    <row r="275" spans="18:28">
+    <row r="275" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R275" s="8"/>
       <c r="U275" s="8"/>
       <c r="Y275" s="8"/>
       <c r="AB275" s="8"/>
     </row>
-    <row r="276" spans="18:28">
+    <row r="276" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R276" s="8"/>
       <c r="U276" s="8"/>
       <c r="Y276" s="8"/>
       <c r="AB276" s="8"/>
     </row>
-    <row r="277" spans="18:28">
+    <row r="277" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R277" s="8"/>
       <c r="U277" s="8"/>
       <c r="Y277" s="8"/>
       <c r="AB277" s="8"/>
     </row>
-    <row r="278" spans="18:28">
+    <row r="278" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R278" s="8"/>
       <c r="U278" s="8"/>
       <c r="Y278" s="8"/>
       <c r="AB278" s="8"/>
     </row>
-    <row r="279" spans="18:28">
+    <row r="279" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R279" s="8"/>
       <c r="U279" s="8"/>
       <c r="Y279" s="8"/>
       <c r="AB279" s="8"/>
     </row>
-    <row r="280" spans="18:28">
+    <row r="280" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R280" s="8"/>
       <c r="U280" s="8"/>
       <c r="Y280" s="8"/>
       <c r="AB280" s="8"/>
     </row>
-    <row r="281" spans="18:28">
+    <row r="281" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R281" s="8"/>
       <c r="U281" s="8"/>
       <c r="Y281" s="8"/>
       <c r="AB281" s="8"/>
     </row>
-    <row r="282" spans="18:28">
+    <row r="282" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R282" s="8"/>
       <c r="U282" s="8"/>
       <c r="Y282" s="8"/>
       <c r="AB282" s="8"/>
     </row>
-    <row r="283" spans="18:28">
+    <row r="283" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R283" s="8"/>
       <c r="U283" s="8"/>
       <c r="Y283" s="8"/>
       <c r="AB283" s="8"/>
     </row>
-    <row r="284" spans="18:28">
+    <row r="284" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R284" s="8"/>
       <c r="U284" s="8"/>
       <c r="Y284" s="8"/>
       <c r="AB284" s="8"/>
     </row>
-    <row r="285" spans="18:28">
+    <row r="285" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R285" s="8"/>
       <c r="U285" s="8"/>
       <c r="Y285" s="8"/>
       <c r="AB285" s="8"/>
     </row>
-    <row r="286" spans="18:28">
+    <row r="286" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R286" s="8"/>
       <c r="U286" s="8"/>
       <c r="Y286" s="8"/>
       <c r="AB286" s="8"/>
     </row>
-    <row r="287" spans="18:28">
+    <row r="287" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R287" s="8"/>
       <c r="U287" s="8"/>
       <c r="Y287" s="8"/>
       <c r="AB287" s="8"/>
     </row>
-    <row r="288" spans="18:28">
+    <row r="288" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R288" s="8"/>
       <c r="U288" s="8"/>
       <c r="Y288" s="8"/>
       <c r="AB288" s="8"/>
     </row>
-    <row r="289" spans="18:28">
+    <row r="289" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R289" s="8"/>
       <c r="U289" s="8"/>
       <c r="Y289" s="8"/>
       <c r="AB289" s="8"/>
     </row>
-    <row r="290" spans="18:28">
+    <row r="290" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R290" s="8"/>
       <c r="U290" s="8"/>
       <c r="Y290" s="8"/>
       <c r="AB290" s="8"/>
     </row>
-    <row r="291" spans="18:28">
+    <row r="291" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R291" s="8"/>
       <c r="U291" s="8"/>
       <c r="Y291" s="8"/>
       <c r="AB291" s="8"/>
     </row>
-    <row r="292" spans="18:28">
+    <row r="292" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R292" s="8"/>
       <c r="U292" s="8"/>
       <c r="Y292" s="8"/>
       <c r="AB292" s="8"/>
     </row>
-    <row r="293" spans="18:28">
+    <row r="293" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R293" s="8"/>
       <c r="U293" s="8"/>
       <c r="Y293" s="8"/>
       <c r="AB293" s="8"/>
     </row>
-    <row r="294" spans="18:28">
+    <row r="294" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R294" s="8"/>
       <c r="U294" s="8"/>
       <c r="Y294" s="8"/>
       <c r="AB294" s="8"/>
     </row>
-    <row r="295" spans="18:28">
+    <row r="295" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R295" s="8"/>
       <c r="U295" s="8"/>
       <c r="Y295" s="8"/>
       <c r="AB295" s="8"/>
     </row>
-    <row r="296" spans="18:28">
+    <row r="296" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R296" s="8"/>
       <c r="U296" s="8"/>
       <c r="Y296" s="8"/>
       <c r="AB296" s="8"/>
     </row>
-    <row r="297" spans="18:28">
+    <row r="297" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R297" s="8"/>
       <c r="U297" s="8"/>
       <c r="Y297" s="8"/>
       <c r="AB297" s="8"/>
     </row>
-    <row r="298" spans="18:28">
+    <row r="298" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R298" s="8"/>
       <c r="U298" s="8"/>
       <c r="Y298" s="8"/>
       <c r="AB298" s="8"/>
     </row>
-    <row r="299" spans="18:28">
+    <row r="299" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R299" s="8"/>
       <c r="U299" s="8"/>
       <c r="Y299" s="8"/>
       <c r="AB299" s="8"/>
     </row>
-    <row r="300" spans="18:28">
+    <row r="300" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R300" s="8"/>
       <c r="U300" s="8"/>
       <c r="Y300" s="8"/>
       <c r="AB300" s="8"/>
     </row>
-    <row r="301" spans="18:28">
+    <row r="301" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R301" s="8"/>
       <c r="U301" s="8"/>
       <c r="Y301" s="8"/>
       <c r="AB301" s="8"/>
     </row>
-    <row r="302" spans="18:28">
+    <row r="302" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R302" s="8"/>
       <c r="U302" s="8"/>
       <c r="Y302" s="8"/>
       <c r="AB302" s="8"/>
     </row>
-    <row r="303" spans="18:28">
+    <row r="303" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R303" s="8"/>
       <c r="U303" s="8"/>
       <c r="Y303" s="8"/>
       <c r="AB303" s="8"/>
     </row>
-    <row r="304" spans="18:28">
+    <row r="304" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R304" s="8"/>
       <c r="U304" s="8"/>
       <c r="Y304" s="8"/>
       <c r="AB304" s="8"/>
     </row>
-    <row r="305" spans="18:28">
+    <row r="305" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R305" s="8"/>
       <c r="U305" s="8"/>
       <c r="Y305" s="8"/>
       <c r="AB305" s="8"/>
     </row>
-    <row r="306" spans="18:28">
+    <row r="306" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R306" s="8"/>
       <c r="U306" s="8"/>
       <c r="Y306" s="8"/>
       <c r="AB306" s="8"/>
     </row>
-    <row r="307" spans="18:28">
+    <row r="307" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R307" s="8"/>
       <c r="U307" s="8"/>
       <c r="Y307" s="8"/>
       <c r="AB307" s="8"/>
     </row>
-    <row r="308" spans="18:28">
+    <row r="308" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R308" s="8"/>
       <c r="U308" s="8"/>
       <c r="Y308" s="8"/>
       <c r="AB308" s="8"/>
     </row>
-    <row r="309" spans="18:28">
+    <row r="309" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R309" s="8"/>
       <c r="U309" s="8"/>
       <c r="Y309" s="8"/>
       <c r="AB309" s="8"/>
     </row>
-    <row r="310" spans="18:28">
+    <row r="310" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R310" s="8"/>
       <c r="U310" s="8"/>
       <c r="Y310" s="8"/>
       <c r="AB310" s="8"/>
     </row>
-    <row r="311" spans="18:28">
+    <row r="311" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R311" s="8"/>
       <c r="U311" s="8"/>
       <c r="Y311" s="8"/>
       <c r="AB311" s="8"/>
     </row>
-    <row r="312" spans="18:28">
+    <row r="312" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R312" s="8"/>
       <c r="U312" s="8"/>
       <c r="Y312" s="8"/>
       <c r="AB312" s="8"/>
     </row>
-    <row r="313" spans="18:28">
+    <row r="313" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R313" s="8"/>
       <c r="U313" s="8"/>
       <c r="Y313" s="8"/>
       <c r="AB313" s="8"/>
     </row>
-    <row r="314" spans="18:28">
+    <row r="314" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R314" s="8"/>
       <c r="U314" s="8"/>
       <c r="Y314" s="8"/>
       <c r="AB314" s="8"/>
     </row>
-    <row r="315" spans="18:28">
+    <row r="315" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R315" s="8"/>
       <c r="U315" s="8"/>
       <c r="Y315" s="8"/>
       <c r="AB315" s="8"/>
     </row>
-    <row r="316" spans="18:28">
+    <row r="316" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R316" s="8"/>
       <c r="U316" s="8"/>
       <c r="Y316" s="8"/>
       <c r="AB316" s="8"/>
     </row>
-    <row r="317" spans="18:28">
+    <row r="317" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R317" s="8"/>
       <c r="U317" s="8"/>
       <c r="Y317" s="8"/>
       <c r="AB317" s="8"/>
     </row>
-    <row r="318" spans="18:28">
+    <row r="318" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R318" s="8"/>
       <c r="U318" s="8"/>
       <c r="Y318" s="8"/>
       <c r="AB318" s="8"/>
     </row>
-    <row r="319" spans="18:28">
+    <row r="319" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R319" s="8"/>
       <c r="U319" s="8"/>
       <c r="Y319" s="8"/>
       <c r="AB319" s="8"/>
     </row>
-    <row r="320" spans="18:28">
+    <row r="320" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R320" s="8"/>
       <c r="U320" s="8"/>
       <c r="Y320" s="8"/>
       <c r="AB320" s="8"/>
     </row>
-    <row r="321" spans="18:28">
+    <row r="321" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R321" s="8"/>
       <c r="U321" s="8"/>
       <c r="Y321" s="8"/>
       <c r="AB321" s="8"/>
     </row>
-    <row r="322" spans="18:28">
+    <row r="322" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R322" s="8"/>
       <c r="U322" s="8"/>
       <c r="Y322" s="8"/>
       <c r="AB322" s="8"/>
     </row>
-    <row r="323" spans="18:28">
+    <row r="323" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R323" s="8"/>
       <c r="U323" s="8"/>
       <c r="Y323" s="8"/>
       <c r="AB323" s="8"/>
     </row>
-    <row r="324" spans="18:28">
+    <row r="324" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R324" s="8"/>
       <c r="U324" s="8"/>
       <c r="Y324" s="8"/>
       <c r="AB324" s="8"/>
     </row>
-    <row r="325" spans="18:28">
+    <row r="325" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R325" s="8"/>
       <c r="U325" s="8"/>
       <c r="Y325" s="8"/>
       <c r="AB325" s="8"/>
     </row>
-    <row r="326" spans="18:28">
+    <row r="326" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R326" s="8"/>
       <c r="U326" s="8"/>
       <c r="Y326" s="8"/>
       <c r="AB326" s="8"/>
     </row>
-    <row r="327" spans="18:28">
+    <row r="327" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R327" s="8"/>
       <c r="U327" s="8"/>
       <c r="Y327" s="8"/>
       <c r="AB327" s="8"/>
     </row>
-    <row r="328" spans="18:28">
+    <row r="328" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R328" s="8"/>
       <c r="U328" s="8"/>
       <c r="Y328" s="8"/>
       <c r="AB328" s="8"/>
     </row>
-    <row r="329" spans="18:28">
+    <row r="329" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R329" s="8"/>
       <c r="U329" s="8"/>
       <c r="Y329" s="8"/>
       <c r="AB329" s="8"/>
     </row>
-    <row r="330" spans="18:28">
+    <row r="330" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R330" s="8"/>
       <c r="U330" s="8"/>
       <c r="Y330" s="8"/>
       <c r="AB330" s="8"/>
     </row>
-    <row r="331" spans="18:28">
+    <row r="331" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R331" s="8"/>
       <c r="U331" s="8"/>
       <c r="Y331" s="8"/>
       <c r="AB331" s="8"/>
     </row>
-    <row r="332" spans="18:28">
+    <row r="332" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R332" s="8"/>
       <c r="U332" s="8"/>
       <c r="Y332" s="8"/>
       <c r="AB332" s="8"/>
     </row>
-    <row r="333" spans="18:28">
+    <row r="333" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R333" s="8"/>
       <c r="U333" s="8"/>
       <c r="Y333" s="8"/>
       <c r="AB333" s="8"/>
     </row>
-    <row r="334" spans="18:28">
+    <row r="334" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R334" s="8"/>
       <c r="U334" s="8"/>
       <c r="Y334" s="8"/>
       <c r="AB334" s="8"/>
     </row>
-    <row r="335" spans="18:28">
+    <row r="335" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R335" s="8"/>
       <c r="U335" s="8"/>
       <c r="Y335" s="8"/>
       <c r="AB335" s="8"/>
     </row>
-    <row r="336" spans="18:28">
+    <row r="336" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R336" s="8"/>
       <c r="U336" s="8"/>
       <c r="Y336" s="8"/>
       <c r="AB336" s="8"/>
     </row>
-    <row r="337" spans="18:28">
+    <row r="337" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R337" s="8"/>
       <c r="U337" s="8"/>
       <c r="Y337" s="8"/>
       <c r="AB337" s="8"/>
     </row>
-    <row r="338" spans="18:28">
+    <row r="338" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R338" s="8"/>
       <c r="U338" s="8"/>
       <c r="Y338" s="8"/>
       <c r="AB338" s="8"/>
     </row>
-    <row r="339" spans="18:28">
+    <row r="339" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R339" s="8"/>
       <c r="U339" s="8"/>
       <c r="Y339" s="8"/>
       <c r="AB339" s="8"/>
     </row>
-    <row r="340" spans="18:28">
+    <row r="340" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R340" s="8"/>
       <c r="U340" s="8"/>
       <c r="Y340" s="8"/>
       <c r="AB340" s="8"/>
     </row>
-    <row r="341" spans="18:28">
+    <row r="341" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R341" s="8"/>
       <c r="U341" s="8"/>
       <c r="Y341" s="8"/>
       <c r="AB341" s="8"/>
     </row>
-    <row r="342" spans="18:28">
+    <row r="342" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R342" s="8"/>
       <c r="U342" s="8"/>
       <c r="Y342" s="8"/>
       <c r="AB342" s="8"/>
     </row>
-    <row r="343" spans="18:28">
+    <row r="343" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R343" s="8"/>
       <c r="U343" s="8"/>
       <c r="Y343" s="8"/>
       <c r="AB343" s="8"/>
     </row>
-    <row r="344" spans="18:28">
+    <row r="344" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R344" s="8"/>
       <c r="U344" s="8"/>
       <c r="Y344" s="8"/>
       <c r="AB344" s="8"/>
     </row>
-    <row r="345" spans="18:28">
+    <row r="345" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R345" s="8"/>
       <c r="U345" s="8"/>
       <c r="Y345" s="8"/>
       <c r="AB345" s="8"/>
     </row>
-    <row r="346" spans="18:28">
+    <row r="346" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R346" s="8"/>
       <c r="U346" s="8"/>
       <c r="Y346" s="8"/>
       <c r="AB346" s="8"/>
     </row>
-    <row r="347" spans="18:28">
+    <row r="347" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R347" s="8"/>
       <c r="U347" s="8"/>
       <c r="Y347" s="8"/>
       <c r="AB347" s="8"/>
     </row>
-    <row r="348" spans="18:28">
+    <row r="348" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R348" s="8"/>
       <c r="U348" s="8"/>
       <c r="Y348" s="8"/>
       <c r="AB348" s="8"/>
     </row>
-    <row r="349" spans="18:28">
+    <row r="349" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R349" s="8"/>
       <c r="U349" s="8"/>
       <c r="Y349" s="8"/>
       <c r="AB349" s="8"/>
     </row>
-    <row r="350" spans="18:28">
+    <row r="350" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R350" s="8"/>
       <c r="U350" s="8"/>
       <c r="Y350" s="8"/>
       <c r="AB350" s="8"/>
     </row>
-    <row r="351" spans="18:28">
+    <row r="351" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R351" s="8"/>
       <c r="U351" s="8"/>
       <c r="Y351" s="8"/>
       <c r="AB351" s="8"/>
     </row>
-    <row r="352" spans="18:28">
+    <row r="352" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R352" s="8"/>
       <c r="U352" s="8"/>
       <c r="Y352" s="8"/>
       <c r="AB352" s="8"/>
     </row>
-    <row r="353" spans="18:28">
+    <row r="353" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R353" s="8"/>
       <c r="U353" s="8"/>
       <c r="Y353" s="8"/>
       <c r="AB353" s="8"/>
     </row>
-    <row r="354" spans="18:28">
+    <row r="354" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R354" s="8"/>
       <c r="U354" s="8"/>
       <c r="Y354" s="8"/>
       <c r="AB354" s="8"/>
     </row>
-    <row r="355" spans="18:28">
+    <row r="355" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R355" s="8"/>
       <c r="U355" s="8"/>
       <c r="Y355" s="8"/>
       <c r="AB355" s="8"/>
     </row>
-    <row r="356" spans="18:28">
+    <row r="356" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R356" s="8"/>
       <c r="U356" s="8"/>
       <c r="Y356" s="8"/>
       <c r="AB356" s="8"/>
     </row>
-    <row r="357" spans="18:28">
+    <row r="357" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R357" s="8"/>
       <c r="U357" s="8"/>
       <c r="Y357" s="8"/>
       <c r="AB357" s="8"/>
     </row>
-    <row r="358" spans="18:28">
+    <row r="358" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R358" s="8"/>
       <c r="U358" s="8"/>
       <c r="Y358" s="8"/>
       <c r="AB358" s="8"/>
     </row>
-    <row r="359" spans="18:28">
+    <row r="359" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R359" s="8"/>
       <c r="U359" s="8"/>
       <c r="Y359" s="8"/>
       <c r="AB359" s="8"/>
     </row>
-    <row r="360" spans="18:28">
+    <row r="360" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R360" s="8"/>
       <c r="U360" s="8"/>
       <c r="Y360" s="8"/>
       <c r="AB360" s="8"/>
     </row>
-    <row r="361" spans="18:28">
+    <row r="361" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R361" s="8"/>
       <c r="U361" s="8"/>
       <c r="Y361" s="8"/>
       <c r="AB361" s="8"/>
     </row>
-    <row r="362" spans="18:28">
+    <row r="362" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R362" s="8"/>
       <c r="U362" s="8"/>
       <c r="Y362" s="8"/>
       <c r="AB362" s="8"/>
     </row>
-    <row r="363" spans="18:28">
+    <row r="363" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R363" s="8"/>
       <c r="U363" s="8"/>
       <c r="Y363" s="8"/>
       <c r="AB363" s="8"/>
     </row>
-    <row r="364" spans="18:28">
+    <row r="364" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R364" s="8"/>
       <c r="U364" s="8"/>
       <c r="Y364" s="8"/>
       <c r="AB364" s="8"/>
     </row>
-    <row r="365" spans="18:28">
+    <row r="365" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R365" s="8"/>
       <c r="U365" s="8"/>
       <c r="Y365" s="8"/>
       <c r="AB365" s="8"/>
     </row>
-    <row r="366" spans="18:28">
+    <row r="366" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R366" s="8"/>
       <c r="U366" s="8"/>
       <c r="Y366" s="8"/>
       <c r="AB366" s="8"/>
     </row>
-    <row r="367" spans="18:28">
+    <row r="367" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R367" s="8"/>
       <c r="U367" s="8"/>
       <c r="Y367" s="8"/>
       <c r="AB367" s="8"/>
     </row>
-    <row r="368" spans="18:28">
+    <row r="368" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R368" s="8"/>
       <c r="U368" s="8"/>
       <c r="Y368" s="8"/>
       <c r="AB368" s="8"/>
     </row>
-    <row r="369" spans="18:28">
+    <row r="369" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R369" s="8"/>
       <c r="U369" s="8"/>
       <c r="Y369" s="8"/>
       <c r="AB369" s="8"/>
     </row>
-    <row r="370" spans="18:28">
+    <row r="370" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R370" s="8"/>
       <c r="U370" s="8"/>
       <c r="Y370" s="8"/>
       <c r="AB370" s="8"/>
     </row>
-    <row r="371" spans="18:28">
+    <row r="371" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R371" s="8"/>
       <c r="U371" s="8"/>
       <c r="Y371" s="8"/>
       <c r="AB371" s="8"/>
     </row>
-    <row r="372" spans="18:28">
+    <row r="372" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R372" s="8"/>
       <c r="U372" s="8"/>
       <c r="Y372" s="8"/>
       <c r="AB372" s="8"/>
     </row>
-    <row r="373" spans="18:28">
+    <row r="373" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R373" s="8"/>
       <c r="U373" s="8"/>
       <c r="Y373" s="8"/>
       <c r="AB373" s="8"/>
     </row>
-    <row r="374" spans="18:28">
+    <row r="374" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R374" s="8"/>
       <c r="U374" s="8"/>
       <c r="Y374" s="8"/>
       <c r="AB374" s="8"/>
     </row>
-    <row r="375" spans="18:28">
+    <row r="375" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R375" s="8"/>
       <c r="U375" s="8"/>
       <c r="Y375" s="8"/>
       <c r="AB375" s="8"/>
     </row>
-    <row r="376" spans="18:28">
+    <row r="376" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R376" s="8"/>
       <c r="U376" s="8"/>
       <c r="Y376" s="8"/>
       <c r="AB376" s="8"/>
     </row>
-    <row r="377" spans="18:28">
+    <row r="377" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R377" s="8"/>
       <c r="U377" s="8"/>
       <c r="Y377" s="8"/>
       <c r="AB377" s="8"/>
     </row>
-    <row r="378" spans="18:28">
+    <row r="378" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R378" s="8"/>
       <c r="U378" s="8"/>
       <c r="Y378" s="8"/>
       <c r="AB378" s="8"/>
     </row>
-    <row r="379" spans="18:28">
+    <row r="379" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R379" s="8"/>
       <c r="U379" s="8"/>
       <c r="Y379" s="8"/>
       <c r="AB379" s="8"/>
     </row>
-    <row r="380" spans="18:28">
+    <row r="380" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R380" s="8"/>
       <c r="U380" s="8"/>
       <c r="Y380" s="8"/>
       <c r="AB380" s="8"/>
     </row>
-    <row r="381" spans="18:28">
+    <row r="381" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R381" s="8"/>
       <c r="U381" s="8"/>
       <c r="Y381" s="8"/>
       <c r="AB381" s="8"/>
     </row>
-    <row r="382" spans="18:28">
+    <row r="382" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R382" s="8"/>
       <c r="U382" s="8"/>
       <c r="Y382" s="8"/>
       <c r="AB382" s="8"/>
     </row>
-    <row r="383" spans="18:28">
+    <row r="383" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R383" s="8"/>
       <c r="U383" s="8"/>
       <c r="Y383" s="8"/>
       <c r="AB383" s="8"/>
     </row>
-    <row r="384" spans="18:28">
+    <row r="384" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R384" s="8"/>
       <c r="U384" s="8"/>
       <c r="Y384" s="8"/>
       <c r="AB384" s="8"/>
     </row>
-    <row r="385" spans="18:28">
+    <row r="385" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R385" s="8"/>
       <c r="U385" s="8"/>
       <c r="Y385" s="8"/>
       <c r="AB385" s="8"/>
     </row>
-    <row r="386" spans="18:28">
+    <row r="386" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R386" s="8"/>
       <c r="U386" s="8"/>
       <c r="Y386" s="8"/>
       <c r="AB386" s="8"/>
     </row>
-    <row r="387" spans="18:28">
+    <row r="387" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R387" s="8"/>
       <c r="U387" s="8"/>
       <c r="Y387" s="8"/>
       <c r="AB387" s="8"/>
     </row>
-    <row r="388" spans="18:28">
+    <row r="388" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R388" s="8"/>
       <c r="U388" s="8"/>
       <c r="Y388" s="8"/>
       <c r="AB388" s="8"/>
     </row>
-    <row r="389" spans="18:28">
+    <row r="389" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R389" s="8"/>
       <c r="U389" s="8"/>
       <c r="Y389" s="8"/>
       <c r="AB389" s="8"/>
     </row>
-    <row r="390" spans="18:28">
+    <row r="390" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R390" s="8"/>
       <c r="U390" s="8"/>
       <c r="Y390" s="8"/>
       <c r="AB390" s="8"/>
     </row>
-    <row r="391" spans="18:28">
+    <row r="391" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R391" s="8"/>
       <c r="U391" s="8"/>
       <c r="Y391" s="8"/>
       <c r="AB391" s="8"/>
     </row>
-    <row r="392" spans="18:28">
+    <row r="392" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R392" s="8"/>
       <c r="U392" s="8"/>
       <c r="Y392" s="8"/>
       <c r="AB392" s="8"/>
     </row>
-    <row r="393" spans="18:28">
+    <row r="393" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R393" s="8"/>
       <c r="U393" s="8"/>
       <c r="Y393" s="8"/>
       <c r="AB393" s="8"/>
     </row>
-    <row r="394" spans="18:28">
+    <row r="394" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R394" s="8"/>
       <c r="U394" s="8"/>
       <c r="Y394" s="8"/>
       <c r="AB394" s="8"/>
     </row>
-    <row r="395" spans="18:28">
+    <row r="395" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R395" s="8"/>
       <c r="U395" s="8"/>
       <c r="Y395" s="8"/>
       <c r="AB395" s="8"/>
     </row>
-    <row r="396" spans="18:28">
+    <row r="396" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R396" s="8"/>
       <c r="U396" s="8"/>
       <c r="Y396" s="8"/>
       <c r="AB396" s="8"/>
     </row>
-    <row r="397" spans="18:28">
+    <row r="397" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R397" s="8"/>
       <c r="U397" s="8"/>
       <c r="Y397" s="8"/>
       <c r="AB397" s="8"/>
     </row>
-    <row r="398" spans="18:28">
+    <row r="398" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R398" s="8"/>
       <c r="U398" s="8"/>
       <c r="Y398" s="8"/>
       <c r="AB398" s="8"/>
     </row>
-    <row r="399" spans="18:28">
+    <row r="399" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R399" s="8"/>
       <c r="U399" s="8"/>
       <c r="Y399" s="8"/>
       <c r="AB399" s="8"/>
     </row>
-    <row r="400" spans="18:28">
+    <row r="400" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R400" s="8"/>
       <c r="U400" s="8"/>
       <c r="Y400" s="8"/>
       <c r="AB400" s="8"/>
     </row>
-    <row r="401" spans="18:28">
+    <row r="401" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R401" s="8"/>
       <c r="U401" s="8"/>
       <c r="Y401" s="8"/>
       <c r="AB401" s="8"/>
     </row>
-    <row r="402" spans="18:28">
+    <row r="402" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R402" s="8"/>
       <c r="U402" s="8"/>
       <c r="Y402" s="8"/>
       <c r="AB402" s="8"/>
     </row>
-    <row r="403" spans="18:28">
+    <row r="403" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R403" s="8"/>
       <c r="U403" s="8"/>
       <c r="Y403" s="8"/>
       <c r="AB403" s="8"/>
     </row>
-    <row r="404" spans="18:28">
+    <row r="404" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R404" s="8"/>
       <c r="U404" s="8"/>
       <c r="Y404" s="8"/>
       <c r="AB404" s="8"/>
     </row>
-    <row r="405" spans="18:28">
+    <row r="405" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R405" s="8"/>
       <c r="U405" s="8"/>
       <c r="Y405" s="8"/>
       <c r="AB405" s="8"/>
     </row>
-    <row r="406" spans="18:28">
+    <row r="406" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R406" s="8"/>
       <c r="U406" s="8"/>
       <c r="Y406" s="8"/>
       <c r="AB406" s="8"/>
     </row>
-    <row r="407" spans="18:28">
+    <row r="407" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R407" s="8"/>
       <c r="U407" s="8"/>
       <c r="Y407" s="8"/>
       <c r="AB407" s="8"/>
     </row>
-    <row r="408" spans="18:28">
+    <row r="408" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R408" s="8"/>
       <c r="U408" s="8"/>
       <c r="Y408" s="8"/>
       <c r="AB408" s="8"/>
     </row>
-    <row r="409" spans="18:28">
+    <row r="409" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R409" s="8"/>
       <c r="U409" s="8"/>
       <c r="Y409" s="8"/>
       <c r="AB409" s="8"/>
     </row>
-    <row r="410" spans="18:28">
+    <row r="410" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R410" s="8"/>
       <c r="U410" s="8"/>
       <c r="Y410" s="8"/>
       <c r="AB410" s="8"/>
     </row>
-    <row r="411" spans="18:28">
+    <row r="411" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R411" s="8"/>
       <c r="U411" s="8"/>
       <c r="Y411" s="8"/>
       <c r="AB411" s="8"/>
     </row>
-    <row r="412" spans="18:28">
+    <row r="412" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R412" s="8"/>
       <c r="U412" s="8"/>
       <c r="Y412" s="8"/>
       <c r="AB412" s="8"/>
     </row>
-    <row r="413" spans="18:28">
+    <row r="413" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R413" s="8"/>
       <c r="U413" s="8"/>
       <c r="Y413" s="8"/>
       <c r="AB413" s="8"/>
     </row>
-    <row r="414" spans="18:28">
+    <row r="414" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R414" s="8"/>
       <c r="U414" s="8"/>
       <c r="Y414" s="8"/>
       <c r="AB414" s="8"/>
     </row>
-    <row r="415" spans="18:28">
+    <row r="415" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R415" s="8"/>
       <c r="U415" s="8"/>
       <c r="Y415" s="8"/>
       <c r="AB415" s="8"/>
     </row>
-    <row r="416" spans="18:28">
+    <row r="416" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R416" s="8"/>
       <c r="U416" s="8"/>
       <c r="Y416" s="8"/>
       <c r="AB416" s="8"/>
     </row>
-    <row r="417" spans="18:28">
+    <row r="417" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R417" s="8"/>
       <c r="U417" s="8"/>
       <c r="Y417" s="8"/>
       <c r="AB417" s="8"/>
     </row>
-    <row r="418" spans="18:28">
+    <row r="418" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R418" s="8"/>
       <c r="U418" s="8"/>
       <c r="Y418" s="8"/>
       <c r="AB418" s="8"/>
     </row>
-    <row r="419" spans="18:28">
+    <row r="419" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R419" s="8"/>
       <c r="U419" s="8"/>
       <c r="Y419" s="8"/>
       <c r="AB419" s="8"/>
     </row>
-    <row r="420" spans="18:28">
+    <row r="420" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R420" s="8"/>
       <c r="U420" s="8"/>
       <c r="Y420" s="8"/>
       <c r="AB420" s="8"/>
     </row>
-    <row r="421" spans="18:28">
+    <row r="421" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R421" s="8"/>
       <c r="U421" s="8"/>
       <c r="Y421" s="8"/>
       <c r="AB421" s="8"/>
     </row>
-    <row r="422" spans="18:28">
+    <row r="422" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R422" s="8"/>
       <c r="U422" s="8"/>
       <c r="Y422" s="8"/>
       <c r="AB422" s="8"/>
     </row>
-    <row r="423" spans="18:28">
+    <row r="423" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R423" s="8"/>
       <c r="U423" s="8"/>
       <c r="Y423" s="8"/>
       <c r="AB423" s="8"/>
     </row>
-    <row r="424" spans="18:28">
+    <row r="424" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R424" s="8"/>
       <c r="U424" s="8"/>
       <c r="Y424" s="8"/>
       <c r="AB424" s="8"/>
     </row>
-    <row r="425" spans="18:28">
+    <row r="425" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R425" s="8"/>
       <c r="U425" s="8"/>
       <c r="Y425" s="8"/>
       <c r="AB425" s="8"/>
     </row>
-    <row r="426" spans="18:28">
+    <row r="426" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R426" s="8"/>
       <c r="U426" s="8"/>
       <c r="Y426" s="8"/>
       <c r="AB426" s="8"/>
     </row>
-    <row r="427" spans="18:28">
+    <row r="427" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R427" s="8"/>
       <c r="U427" s="8"/>
       <c r="Y427" s="8"/>
       <c r="AB427" s="8"/>
     </row>
-    <row r="428" spans="18:28">
+    <row r="428" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R428" s="8"/>
       <c r="U428" s="8"/>
       <c r="Y428" s="8"/>
       <c r="AB428" s="8"/>
     </row>
-    <row r="429" spans="18:28">
+    <row r="429" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R429" s="8"/>
       <c r="U429" s="8"/>
       <c r="Y429" s="8"/>
       <c r="AB429" s="8"/>
     </row>
-    <row r="430" spans="18:28">
+    <row r="430" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R430" s="8"/>
       <c r="U430" s="8"/>
       <c r="Y430" s="8"/>
       <c r="AB430" s="8"/>
     </row>
-    <row r="431" spans="18:28">
+    <row r="431" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R431" s="8"/>
       <c r="U431" s="8"/>
       <c r="Y431" s="8"/>
       <c r="AB431" s="8"/>
     </row>
-    <row r="432" spans="18:28">
+    <row r="432" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R432" s="8"/>
       <c r="U432" s="8"/>
       <c r="Y432" s="8"/>
       <c r="AB432" s="8"/>
     </row>
-    <row r="433" spans="18:28">
+    <row r="433" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R433" s="8"/>
       <c r="U433" s="8"/>
       <c r="Y433" s="8"/>
       <c r="AB433" s="8"/>
     </row>
-    <row r="434" spans="18:28">
+    <row r="434" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R434" s="8"/>
       <c r="U434" s="8"/>
       <c r="Y434" s="8"/>
       <c r="AB434" s="8"/>
     </row>
-    <row r="435" spans="18:28">
+    <row r="435" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R435" s="8"/>
       <c r="U435" s="8"/>
       <c r="Y435" s="8"/>
       <c r="AB435" s="8"/>
     </row>
-    <row r="436" spans="18:28">
+    <row r="436" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R436" s="8"/>
       <c r="U436" s="8"/>
       <c r="Y436" s="8"/>
       <c r="AB436" s="8"/>
     </row>
-    <row r="437" spans="18:28">
+    <row r="437" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R437" s="8"/>
       <c r="U437" s="8"/>
       <c r="Y437" s="8"/>
       <c r="AB437" s="8"/>
     </row>
-    <row r="438" spans="18:28">
+    <row r="438" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R438" s="8"/>
       <c r="U438" s="8"/>
       <c r="Y438" s="8"/>
       <c r="AB438" s="8"/>
     </row>
-    <row r="439" spans="18:28">
+    <row r="439" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R439" s="8"/>
       <c r="U439" s="8"/>
       <c r="Y439" s="8"/>
       <c r="AB439" s="8"/>
     </row>
-    <row r="440" spans="18:28">
+    <row r="440" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R440" s="8"/>
       <c r="U440" s="8"/>
       <c r="Y440" s="8"/>
       <c r="AB440" s="8"/>
     </row>
-    <row r="441" spans="18:28">
+    <row r="441" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R441" s="8"/>
       <c r="U441" s="8"/>
       <c r="Y441" s="8"/>
       <c r="AB441" s="8"/>
     </row>
-    <row r="442" spans="18:28">
+    <row r="442" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R442" s="8"/>
       <c r="U442" s="8"/>
       <c r="Y442" s="8"/>
       <c r="AB442" s="8"/>
     </row>
-    <row r="443" spans="18:28">
+    <row r="443" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R443" s="8"/>
       <c r="U443" s="8"/>
       <c r="Y443" s="8"/>
       <c r="AB443" s="8"/>
     </row>
-    <row r="444" spans="18:28">
+    <row r="444" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R444" s="8"/>
       <c r="U444" s="8"/>
       <c r="Y444" s="8"/>
       <c r="AB444" s="8"/>
     </row>
-    <row r="445" spans="18:28">
+    <row r="445" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R445" s="8"/>
       <c r="U445" s="8"/>
       <c r="Y445" s="8"/>
       <c r="AB445" s="8"/>
     </row>
-    <row r="446" spans="18:28">
+    <row r="446" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R446" s="8"/>
       <c r="U446" s="8"/>
       <c r="Y446" s="8"/>
       <c r="AB446" s="8"/>
     </row>
-    <row r="447" spans="18:28">
+    <row r="447" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R447" s="8"/>
       <c r="U447" s="8"/>
       <c r="Y447" s="8"/>
       <c r="AB447" s="8"/>
     </row>
-    <row r="448" spans="18:28">
+    <row r="448" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R448" s="8"/>
       <c r="U448" s="8"/>
       <c r="Y448" s="8"/>
       <c r="AB448" s="8"/>
     </row>
-    <row r="449" spans="18:28">
+    <row r="449" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R449" s="8"/>
       <c r="U449" s="8"/>
       <c r="Y449" s="8"/>
       <c r="AB449" s="8"/>
     </row>
-    <row r="450" spans="18:28">
+    <row r="450" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R450" s="8"/>
       <c r="U450" s="8"/>
       <c r="Y450" s="8"/>
       <c r="AB450" s="8"/>
     </row>
-    <row r="451" spans="18:28">
+    <row r="451" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R451" s="8"/>
       <c r="U451" s="8"/>
       <c r="Y451" s="8"/>
       <c r="AB451" s="8"/>
     </row>
-    <row r="452" spans="18:28">
+    <row r="452" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R452" s="8"/>
       <c r="U452" s="8"/>
       <c r="Y452" s="8"/>
       <c r="AB452" s="8"/>
     </row>
-    <row r="453" spans="18:28">
+    <row r="453" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R453" s="8"/>
       <c r="U453" s="8"/>
       <c r="Y453" s="8"/>
       <c r="AB453" s="8"/>
     </row>
-    <row r="454" spans="18:28">
+    <row r="454" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R454" s="8"/>
       <c r="U454" s="8"/>
       <c r="Y454" s="8"/>
       <c r="AB454" s="8"/>
     </row>
-    <row r="455" spans="18:28">
+    <row r="455" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R455" s="8"/>
       <c r="U455" s="8"/>
       <c r="Y455" s="8"/>
@@ -48899,7 +49155,7 @@
     <mergeCell ref="V4:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="B134:C134 B136:C136 B138:C138 B140:C140 B108:C108 B110:C110 B112:C112 B114:C114 B152:C152 B154:C154 B156:C156 B158:C158 B160:C160 B168:C168 B170:C170 B172:C172 B178:C178 B176:C176 B174:C174 B162:C162 B164:C164 B166:C166 B150:C150 B116:C116 B118:C118 B142:C142 B148:C148 B144:C144 B146:C146 B120:C120 B122:C122 B124:C124 B126:C126 B128:C128 B130:C130 B132:C132 B104:C104 B106:C106 B68:C68 B70:C70 B72:C72 B74:C74 B76:C76 B78:C78 B80:C80 B82:C82 B84:C84 B86:C86 B88:C88 B90:C90 B92:C92 B94:C94 B96:C96 B98:C98 B100:C100 B102:C102 B10:C10 A11:C12 A14:C14 A16:C16 B18:C18 A19:C20 A22:C22 A24:C24 A26:C26 A28:C28 B30:C30 B32:C32 B34:C34 B36:C36 B38:C44 B46:C46 B48:C48 B50:C50 B52:C52 B54:C54 B56:C56 B58:C58 B60:C60 B62:C62 B64:C64 B66:C66 A8:C9">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ReqspProyectoFDual_V1.xlsx
+++ b/ReqspProyectoFDual_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan_\Desktop\ProyectoFDConti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A31746-2D11-4DE6-A263-B5785E6D497B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB256DF-E725-4FB9-8567-0D654D9E1DCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A02C390F-C9E6-4B77-986F-EC5ACE46F6C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A02C390F-C9E6-4B77-986F-EC5ACE46F6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="L0 - L1" sheetId="7" r:id="rId1"/>
@@ -713,7 +713,7 @@
     <t>L3H11</t>
   </si>
   <si>
-    <t>Requisitoss nuevos, en L2 con aclaracion</t>
+    <t>Requisitos nuevos, en L2 con aclaracion, prueba de cambios github</t>
   </si>
 </sst>
 </file>
@@ -1351,30 +1351,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1400,13 +1376,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,6 +1393,36 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1430,6 +1430,91 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2060119D-8B58-4A95-98BB-9E2602B22264}"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1524,137 +1609,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1737,6 +1695,7 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1795,6 +1754,47 @@
         <sz val="14"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="0" xr9:uid="{B8DF7915-5D17-4737-BEE8-CE32C6BFA136}"/>
@@ -1812,56 +1812,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8FB503B4-5852-467F-80CE-96B20431FFB6}" name="Tabla6" displayName="Tabla6" ref="B2:F17" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8FB503B4-5852-467F-80CE-96B20431FFB6}" name="Tabla6" displayName="Tabla6" ref="B2:F17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B2:F17" xr:uid="{0D32C79D-1A48-44CA-85AB-978D5A816218}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{238EA632-6A45-4155-BDDC-700148913429}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B09AF43D-1AFE-4033-9788-7D4CD198D314}" name="L0 - Client reqs" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{450518DB-913B-44C5-9DCA-F6235293E1A3}" name="Type" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6D13D9E4-C2AD-4C15-805D-8B3DE8729B67}" name="Status" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{1B6B7238-A9FA-40E7-8F48-9941B752A7CE}" name="Comentarios" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{238EA632-6A45-4155-BDDC-700148913429}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B09AF43D-1AFE-4033-9788-7D4CD198D314}" name="L0 - Client reqs" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{450518DB-913B-44C5-9DCA-F6235293E1A3}" name="Type" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6D13D9E4-C2AD-4C15-805D-8B3DE8729B67}" name="Status" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{1B6B7238-A9FA-40E7-8F48-9941B752A7CE}" name="Comentarios" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5E209630-5FD9-4C30-AE0E-201E57CD6359}" name="Tabla69" displayName="Tabla69" ref="J2:N17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5E209630-5FD9-4C30-AE0E-201E57CD6359}" name="Tabla69" displayName="Tabla69" ref="J2:N17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="J2:N17" xr:uid="{E065B6D9-BD05-4812-83C8-956917271C28}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DDAB8C83-8FD4-45F8-A331-D80B20C2E5FD}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5C9E833B-18C4-4C89-ACC7-6D059BFD6B64}" name="L1 - Subsystems reqs" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F932988F-DABF-4506-91EA-E4FA04D29EC5}" name="Type" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{AC49A88E-08D8-4B4E-846B-EF102FC17BB2}" name="Status" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{62F4063A-5CA8-4E5B-8073-13029D0C468D}" name="Comentarios" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{DDAB8C83-8FD4-45F8-A331-D80B20C2E5FD}" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5C9E833B-18C4-4C89-ACC7-6D059BFD6B64}" name="L1 - Subsystems reqs" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F932988F-DABF-4506-91EA-E4FA04D29EC5}" name="Type" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{AC49A88E-08D8-4B4E-846B-EF102FC17BB2}" name="Status" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{62F4063A-5CA8-4E5B-8073-13029D0C468D}" name="Comentarios" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{91FD66E1-9A3C-4183-80FC-9EAE780A5D0F}" name="Tabla10" displayName="Tabla10" ref="B2:F38" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{91FD66E1-9A3C-4183-80FC-9EAE780A5D0F}" name="Tabla10" displayName="Tabla10" ref="B2:F38" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B2:F38" xr:uid="{F4C2A89A-4E81-435F-AF79-43A6CFE1F762}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1FF283A-CF82-4521-AF29-F964EB1BC5D8}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DFEBE0A8-E237-4468-8455-C8401B954C89}" name="L2 - Sistema" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4AA57A03-9DAB-421B-BE1B-AC7C47C12D0D}" name="Type" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{A2E4C1DE-06A9-4522-AE8E-7DF81A671C74}" name="Status" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5680211E-338D-4BAA-BB25-3421065B6D8B}" name="Comentarios" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DFEBE0A8-E237-4468-8455-C8401B954C89}" name="L2 - Sistema" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4AA57A03-9DAB-421B-BE1B-AC7C47C12D0D}" name="Type" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A2E4C1DE-06A9-4522-AE8E-7DF81A671C74}" name="Status" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{5680211E-338D-4BAA-BB25-3421065B6D8B}" name="Comentarios" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{55E41453-AA83-460F-8E63-6ED86BC5D05C}" name="Tabla11" displayName="Tabla11" ref="B2:F13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{55E41453-AA83-460F-8E63-6ED86BC5D05C}" name="Tabla11" displayName="Tabla11" ref="B2:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B2:F13" xr:uid="{C977CFBE-CD30-4B91-BDFA-41A0FA957C31}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{79E0AA74-0959-46BD-8964-FCD953B9831F}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{15698F27-B68D-4904-913C-C74D486B1421}" name="L3 - Hardware" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{58B65A61-E9C9-4C94-B831-84CDDD4A2231}" name="Type" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2712DCB7-8FEE-4233-919A-4620E5A4F0D0}" name="Status" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B2040925-653F-480E-BDAC-8058C0EE2477}" name="Comentarios" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{79E0AA74-0959-46BD-8964-FCD953B9831F}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{15698F27-B68D-4904-913C-C74D486B1421}" name="L3 - Hardware" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{58B65A61-E9C9-4C94-B831-84CDDD4A2231}" name="Type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2712DCB7-8FEE-4233-919A-4620E5A4F0D0}" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B2040925-653F-480E-BDAC-8058C0EE2477}" name="Comentarios" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2166,19 +2166,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635CCCCD-489B-4EED-8673-B7055458FCB0}">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="57" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="57" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2186,472 +2186,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="J1" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="J3" s="66" t="s">
+      <c r="F3" s="53"/>
+      <c r="J3" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="61"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="J4" s="66" t="s">
+      <c r="F4" s="53"/>
+      <c r="J4" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="61"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="J5" s="66" t="s">
+      <c r="F5" s="53"/>
+      <c r="J5" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="J6" s="66" t="s">
+      <c r="F6" s="53"/>
+      <c r="J6" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="61"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="J7" s="66" t="s">
+      <c r="F7" s="53"/>
+      <c r="J7" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="61"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="J8" s="66" t="s">
+      <c r="F8" s="53"/>
+      <c r="J8" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="61"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="J9" s="66" t="s">
+      <c r="F9" s="53"/>
+      <c r="J9" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="61"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="J10" s="66" t="s">
+      <c r="F10" s="53"/>
+      <c r="J10" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="61" t="s">
+      <c r="M10" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="53"/>
     </row>
     <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="J11" s="66" t="s">
+      <c r="F11" s="53"/>
+      <c r="J11" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="61"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="J12" s="66" t="s">
+      <c r="F12" s="53"/>
+      <c r="J12" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="61"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="J13" s="66" t="s">
+      <c r="F13" s="53"/>
+      <c r="J13" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="61"/>
+      <c r="N13" s="53"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="J14" s="66" t="s">
+      <c r="F14" s="53"/>
+      <c r="J14" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N14" s="61"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="J15" s="66" t="s">
+      <c r="F15" s="53"/>
+      <c r="J15" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="61"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="J16" s="66" t="s">
+      <c r="F16" s="53"/>
+      <c r="J16" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M16" s="61" t="s">
+      <c r="M16" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="61"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="61"/>
-      <c r="J17" s="66" t="s">
+      <c r="F17" s="53"/>
+      <c r="J17" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="61"/>
+      <c r="N17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2671,23 +2671,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7622BD-16C3-4A15-818A-CD94220FEC30}">
   <dimension ref="B1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="61"/>
-    <col min="2" max="2" width="10.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="205.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="61"/>
+    <col min="1" max="1" width="11.42578125" style="53"/>
+    <col min="2" max="2" width="10.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="205.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>183</v>
       </c>
       <c r="C1" s="64"/>
@@ -2696,566 +2696,566 @@
       <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="54" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="63"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="53" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3280,187 +3280,187 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="63"/>
-    <col min="2" max="2" width="9.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="63"/>
+    <col min="1" max="1" width="11.42578125" style="54"/>
+    <col min="2" max="2" width="9.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="62" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3516,12 +3516,12 @@
       <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:256" s="37" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="44" t="s">
         <v>75</v>
       </c>
@@ -3531,12 +3531,12 @@
       <c r="AB2" s="35"/>
     </row>
     <row r="3" spans="1:256" s="37" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="44" t="s">
         <v>73</v>
       </c>
@@ -3546,12 +3546,12 @@
       <c r="AB3" s="35"/>
     </row>
     <row r="4" spans="1:256" s="37" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="43" t="s">
         <v>71</v>
       </c>
@@ -3570,21 +3570,21 @@
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="47"/>
+      <c r="T4" s="67"/>
       <c r="U4" s="35"/>
-      <c r="V4" s="50" t="s">
+      <c r="V4" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="52"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
       <c r="Y4" s="35"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="46"/>
+      <c r="AA4" s="66"/>
       <c r="AB4" s="35"/>
     </row>
     <row r="5" spans="1:256" s="37" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="45" t="s">
         <v>108</v>
       </c>
       <c r="F8" s="27"/>
@@ -4486,32 +4486,32 @@
       <c r="IV8" s="9"/>
     </row>
     <row r="9" spans="1:256" s="8" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="24"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="20"/>
@@ -4750,7 +4750,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="15"/>
@@ -50536,7 +50536,7 @@
     <mergeCell ref="V4:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="B135:C135 B137:C137 B139:C139 B141:C141 B109:C109 B111:C111 B113:C113 B115:C115 B153:C153 B155:C155 B157:C157 B159:C159 B161:C161 B169:C169 B171:C171 B173:C173 B179:C179 B177:C177 B175:C175 B163:C163 B165:C165 B167:C167 B151:C151 B117:C117 B119:C119 B143:C143 B149:C149 B145:C145 B147:C147 B121:C121 B123:C123 B125:C125 B127:C127 B129:C129 B131:C131 B133:C133 B105:C105 B107:C107 B69:C69 B71:C71 B73:C73 B75:C75 B77:C77 B79:C79 B81:C81 B83:C83 B85:C85 B87:C87 B89:C89 B91:C91 B93:C93 B95:C95 B97:C97 B99:C99 B101:C101 B103:C103 B11:C11 A12:C13 A15:C15 A17:C17 B19:C19 A20:C21 A23:C23 A25:C25 A27:C27 A29:C29 B31:C31 B33:C33 B35:C35 B37:C37 B39:C45 B47:C47 B49:C49 B51:C51 B53:C53 B55:C55 B57:C57 B59:C59 B61:C61 B63:C63 B65:C65 B67:C67 A8:C10">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
